--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -801,6 +801,9 @@
   <si>
     <t>['45+1', '51', '80']</t>
   </si>
+  <si>
+    <t>['16', '73', '75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2325,7 +2328,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3146,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ10">
         <v>1.38</v>
@@ -4179,7 +4182,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>2.17</v>
@@ -5003,7 +5006,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.39</v>
@@ -5206,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ20">
         <v>1.94</v>
@@ -7060,7 +7063,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7269,7 +7272,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>2.07</v>
@@ -8711,7 +8714,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -9738,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ42">
         <v>2.13</v>
@@ -10356,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
@@ -11801,7 +11804,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.85</v>
@@ -12004,7 +12007,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -13240,7 +13243,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ59">
         <v>1.13</v>
@@ -13449,7 +13452,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.99</v>
@@ -15506,10 +15509,10 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -17978,7 +17981,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ82">
         <v>1.56</v>
@@ -18599,7 +18602,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.52</v>
@@ -19629,7 +19632,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -22513,7 +22516,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>2.25</v>
@@ -23955,7 +23958,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.45</v>
@@ -24364,7 +24367,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ113">
         <v>1.94</v>
@@ -26221,7 +26224,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.68</v>
@@ -26836,7 +26839,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27045,7 +27048,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -28896,7 +28899,7 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ135">
         <v>2.13</v>
@@ -29720,7 +29723,7 @@
         <v>1.85</v>
       </c>
       <c r="AP139">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ139">
         <v>1.88</v>
@@ -30132,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ141">
         <v>1.38</v>
@@ -30753,7 +30756,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ144">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.92</v>
@@ -31162,7 +31165,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -32401,7 +32404,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.84</v>
@@ -33222,7 +33225,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
@@ -34331,6 +34334,212 @@
       </c>
       <c r="BP161">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6441850</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45415.5</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>77</v>
+      </c>
+      <c r="H162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>149</v>
+      </c>
+      <c r="P162" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q162">
+        <v>6.17</v>
+      </c>
+      <c r="R162">
+        <v>2.14</v>
+      </c>
+      <c r="S162">
+        <v>2.27</v>
+      </c>
+      <c r="T162">
+        <v>1.47</v>
+      </c>
+      <c r="U162">
+        <v>2.62</v>
+      </c>
+      <c r="V162">
+        <v>3.2</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.05</v>
+      </c>
+      <c r="Z162">
+        <v>5.65</v>
+      </c>
+      <c r="AA162">
+        <v>3.57</v>
+      </c>
+      <c r="AB162">
+        <v>1.64</v>
+      </c>
+      <c r="AC162">
+        <v>1.07</v>
+      </c>
+      <c r="AD162">
+        <v>8.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.4</v>
+      </c>
+      <c r="AF162">
+        <v>2.89</v>
+      </c>
+      <c r="AG162">
+        <v>2.31</v>
+      </c>
+      <c r="AH162">
+        <v>1.61</v>
+      </c>
+      <c r="AI162">
+        <v>2.2</v>
+      </c>
+      <c r="AJ162">
+        <v>1.6</v>
+      </c>
+      <c r="AK162">
+        <v>2.15</v>
+      </c>
+      <c r="AL162">
+        <v>1.24</v>
+      </c>
+      <c r="AM162">
+        <v>1.13</v>
+      </c>
+      <c r="AN162">
+        <v>0.38</v>
+      </c>
+      <c r="AO162">
+        <v>0.88</v>
+      </c>
+      <c r="AP162">
+        <v>0.35</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AR162">
+        <v>1.33</v>
+      </c>
+      <c r="AS162">
+        <v>1.23</v>
+      </c>
+      <c r="AT162">
+        <v>2.56</v>
+      </c>
+      <c r="AU162">
+        <v>2</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>3</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>5</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>10</v>
+      </c>
+      <c r="BC162">
+        <v>16</v>
+      </c>
+      <c r="BD162">
+        <v>3.3</v>
+      </c>
+      <c r="BE162">
+        <v>8</v>
+      </c>
+      <c r="BF162">
+        <v>1.45</v>
+      </c>
+      <c r="BG162">
+        <v>1.33</v>
+      </c>
+      <c r="BH162">
+        <v>2.91</v>
+      </c>
+      <c r="BI162">
+        <v>1.82</v>
+      </c>
+      <c r="BJ162">
+        <v>1.98</v>
+      </c>
+      <c r="BK162">
+        <v>2.08</v>
+      </c>
+      <c r="BL162">
+        <v>1.67</v>
+      </c>
+      <c r="BM162">
+        <v>2.71</v>
+      </c>
+      <c r="BN162">
+        <v>1.38</v>
+      </c>
+      <c r="BO162">
+        <v>3.74</v>
+      </c>
+      <c r="BP162">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['37', '43', '90+6']</t>
   </si>
   <si>
+    <t>['43', '69', '80', '90+5']</t>
+  </si>
+  <si>
+    <t>['65', '76', '79']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -803,6 +809,9 @@
   </si>
   <si>
     <t>['16', '73', '75']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1432,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1913,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2247,7 +2256,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2453,7 +2462,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2740,7 +2749,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ8">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR8">
         <v>2.02</v>
@@ -2865,7 +2874,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3071,7 +3080,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3483,7 +3492,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3689,7 +3698,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3767,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13">
         <v>0.06</v>
@@ -3976,7 +3985,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4513,7 +4522,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4925,7 +4934,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5003,7 +5012,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5131,7 +5140,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5415,10 +5424,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR21">
         <v>2.38</v>
@@ -5543,7 +5552,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5624,7 +5633,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ22">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR22">
         <v>2.49</v>
@@ -5749,7 +5758,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5955,7 +5964,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6161,7 +6170,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6573,7 +6582,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6779,7 +6788,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6857,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -6985,7 +6994,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7066,7 +7075,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7191,7 +7200,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7397,7 +7406,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7603,7 +7612,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7681,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>2.13</v>
@@ -8221,7 +8230,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8427,7 +8436,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8917,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9126,7 +9135,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9332,7 +9341,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>1.89</v>
@@ -9535,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ41">
         <v>1.88</v>
@@ -9663,7 +9672,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9950,7 +9959,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10153,7 +10162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10281,7 +10290,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10693,7 +10702,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10774,7 +10783,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10899,7 +10908,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -10977,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -11183,7 +11192,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>0.06</v>
@@ -11517,7 +11526,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11598,7 +11607,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12216,7 +12225,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12547,7 +12556,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12753,7 +12762,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12959,7 +12968,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13037,7 +13046,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ58">
         <v>1.94</v>
@@ -13371,7 +13380,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13449,7 +13458,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13658,7 +13667,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR61">
         <v>2.24</v>
@@ -13783,7 +13792,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13864,7 +13873,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ62">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR62">
         <v>1.89</v>
@@ -14607,7 +14616,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15019,7 +15028,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15097,7 +15106,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
         <v>1.94</v>
@@ -15303,10 +15312,10 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15431,7 +15440,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15637,7 +15646,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15715,10 +15724,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR71">
         <v>1.96</v>
@@ -16049,7 +16058,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16255,7 +16264,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16461,7 +16470,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16667,7 +16676,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16873,7 +16882,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17569,7 +17578,7 @@
         <v>1.57</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -17778,7 +17787,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR81">
         <v>1.74</v>
@@ -17984,7 +17993,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ82">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18109,7 +18118,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18187,7 +18196,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ83">
         <v>2.13</v>
@@ -18315,7 +18324,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18933,7 +18942,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19139,7 +19148,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19345,7 +19354,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19963,7 +19972,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20041,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -20375,7 +20384,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20456,7 +20465,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>1.9</v>
@@ -20581,7 +20590,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20787,7 +20796,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21071,7 +21080,7 @@
         <v>0.1</v>
       </c>
       <c r="AP97">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97">
         <v>0.06</v>
@@ -21405,7 +21414,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21486,7 +21495,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ99">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21611,7 +21620,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22101,7 +22110,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ102">
         <v>0.06</v>
@@ -22229,7 +22238,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22307,7 +22316,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ103">
         <v>1.94</v>
@@ -22722,7 +22731,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR105">
         <v>1.92</v>
@@ -23259,7 +23268,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23671,7 +23680,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23877,7 +23886,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -23955,7 +23964,7 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24164,7 +24173,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ112">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24289,7 +24298,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24573,10 +24582,10 @@
         <v>0.9</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24907,7 +24916,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25113,7 +25122,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25319,7 +25328,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25937,7 +25946,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26015,10 +26024,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26555,7 +26564,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26633,7 +26642,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ124">
         <v>2.13</v>
@@ -26842,7 +26851,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -26967,7 +26976,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27379,7 +27388,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27791,7 +27800,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27997,7 +28006,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28075,7 +28084,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ131">
         <v>1.13</v>
@@ -28281,7 +28290,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28409,7 +28418,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28490,7 +28499,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ133">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR133">
         <v>1.61</v>
@@ -28696,7 +28705,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ134">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28821,7 +28830,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29108,7 +29117,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29233,7 +29242,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29311,7 +29320,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ137">
         <v>1.38</v>
@@ -29439,7 +29448,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29520,7 +29529,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ138">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29645,7 +29654,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29851,7 +29860,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30057,7 +30066,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30263,7 +30272,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30344,7 +30353,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR142">
         <v>1.57</v>
@@ -30469,7 +30478,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30547,7 +30556,7 @@
         <v>0.92</v>
       </c>
       <c r="AP143">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143">
         <v>1.13</v>
@@ -30675,7 +30684,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31087,7 +31096,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31293,7 +31302,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31374,7 +31383,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ147">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.33</v>
@@ -31499,7 +31508,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31705,7 +31714,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31911,7 +31920,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32323,7 +32332,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32401,7 +32410,7 @@
         <v>0.73</v>
       </c>
       <c r="AP152">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32529,7 +32538,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32607,7 +32616,7 @@
         <v>1.87</v>
       </c>
       <c r="AP153">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ153">
         <v>1.94</v>
@@ -32735,7 +32744,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33022,7 +33031,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>2.1</v>
@@ -33147,7 +33156,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33559,7 +33568,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33971,7 +33980,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34383,7 +34392,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34476,31 +34485,31 @@
         <v>2.56</v>
       </c>
       <c r="AU162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV162">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY162">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ162">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA162">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC162">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BD162">
         <v>3.3</v>
@@ -34540,6 +34549,418 @@
       </c>
       <c r="BP162">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6441851</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45416.5</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s">
+        <v>73</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>184</v>
+      </c>
+      <c r="P163" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q163">
+        <v>2.68</v>
+      </c>
+      <c r="R163">
+        <v>2.18</v>
+      </c>
+      <c r="S163">
+        <v>4.26</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.86</v>
+      </c>
+      <c r="V163">
+        <v>3.04</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>7.7</v>
+      </c>
+      <c r="Y163">
+        <v>1.06</v>
+      </c>
+      <c r="Z163">
+        <v>2.06</v>
+      </c>
+      <c r="AA163">
+        <v>3.23</v>
+      </c>
+      <c r="AB163">
+        <v>3.38</v>
+      </c>
+      <c r="AC163">
+        <v>1.06</v>
+      </c>
+      <c r="AD163">
+        <v>10</v>
+      </c>
+      <c r="AE163">
+        <v>1.32</v>
+      </c>
+      <c r="AF163">
+        <v>3.1</v>
+      </c>
+      <c r="AG163">
+        <v>2</v>
+      </c>
+      <c r="AH163">
+        <v>1.72</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.93</v>
+      </c>
+      <c r="AK163">
+        <v>1.28</v>
+      </c>
+      <c r="AL163">
+        <v>1.29</v>
+      </c>
+      <c r="AM163">
+        <v>1.74</v>
+      </c>
+      <c r="AN163">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO163">
+        <v>0.88</v>
+      </c>
+      <c r="AP163">
+        <v>1.06</v>
+      </c>
+      <c r="AQ163">
+        <v>0.82</v>
+      </c>
+      <c r="AR163">
+        <v>1.46</v>
+      </c>
+      <c r="AS163">
+        <v>1.23</v>
+      </c>
+      <c r="AT163">
+        <v>2.69</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>8</v>
+      </c>
+      <c r="AW163">
+        <v>2</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>7</v>
+      </c>
+      <c r="AZ163">
+        <v>10</v>
+      </c>
+      <c r="BA163">
+        <v>3</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>1.59</v>
+      </c>
+      <c r="BE163">
+        <v>8</v>
+      </c>
+      <c r="BF163">
+        <v>2.9</v>
+      </c>
+      <c r="BG163">
+        <v>1.32</v>
+      </c>
+      <c r="BH163">
+        <v>2.98</v>
+      </c>
+      <c r="BI163">
+        <v>1.65</v>
+      </c>
+      <c r="BJ163">
+        <v>2.2</v>
+      </c>
+      <c r="BK163">
+        <v>2.07</v>
+      </c>
+      <c r="BL163">
+        <v>1.74</v>
+      </c>
+      <c r="BM163">
+        <v>2.67</v>
+      </c>
+      <c r="BN163">
+        <v>1.39</v>
+      </c>
+      <c r="BO163">
+        <v>3.74</v>
+      </c>
+      <c r="BP163">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6441852</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45416.60416666666</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>3</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>185</v>
+      </c>
+      <c r="P164" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q164">
+        <v>2.47</v>
+      </c>
+      <c r="R164">
+        <v>2.18</v>
+      </c>
+      <c r="S164">
+        <v>4.15</v>
+      </c>
+      <c r="T164">
+        <v>1.35</v>
+      </c>
+      <c r="U164">
+        <v>2.9</v>
+      </c>
+      <c r="V164">
+        <v>2.7</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>5.8</v>
+      </c>
+      <c r="Y164">
+        <v>1.1</v>
+      </c>
+      <c r="Z164">
+        <v>1.91</v>
+      </c>
+      <c r="AA164">
+        <v>3.5</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>9.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.22</v>
+      </c>
+      <c r="AF164">
+        <v>3.7</v>
+      </c>
+      <c r="AG164">
+        <v>1.75</v>
+      </c>
+      <c r="AH164">
+        <v>1.93</v>
+      </c>
+      <c r="AI164">
+        <v>1.7</v>
+      </c>
+      <c r="AJ164">
+        <v>2.03</v>
+      </c>
+      <c r="AK164">
+        <v>1.17</v>
+      </c>
+      <c r="AL164">
+        <v>1.19</v>
+      </c>
+      <c r="AM164">
+        <v>1.84</v>
+      </c>
+      <c r="AN164">
+        <v>1.63</v>
+      </c>
+      <c r="AO164">
+        <v>1.56</v>
+      </c>
+      <c r="AP164">
+        <v>1.71</v>
+      </c>
+      <c r="AQ164">
+        <v>1.47</v>
+      </c>
+      <c r="AR164">
+        <v>1.83</v>
+      </c>
+      <c r="AS164">
+        <v>1.49</v>
+      </c>
+      <c r="AT164">
+        <v>3.32</v>
+      </c>
+      <c r="AU164">
+        <v>13</v>
+      </c>
+      <c r="AV164">
+        <v>2</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>2</v>
+      </c>
+      <c r="AY164">
+        <v>18</v>
+      </c>
+      <c r="AZ164">
+        <v>4</v>
+      </c>
+      <c r="BA164">
+        <v>11</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>15</v>
+      </c>
+      <c r="BD164">
+        <v>1.69</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>2.62</v>
+      </c>
+      <c r="BG164">
+        <v>1.24</v>
+      </c>
+      <c r="BH164">
+        <v>3.48</v>
+      </c>
+      <c r="BI164">
+        <v>1.5</v>
+      </c>
+      <c r="BJ164">
+        <v>2.53</v>
+      </c>
+      <c r="BK164">
+        <v>1.88</v>
+      </c>
+      <c r="BL164">
+        <v>1.92</v>
+      </c>
+      <c r="BM164">
+        <v>2.32</v>
+      </c>
+      <c r="BN164">
+        <v>1.58</v>
+      </c>
+      <c r="BO164">
+        <v>3.08</v>
+      </c>
+      <c r="BP164">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -34691,10 +34691,10 @@
         <v>2.69</v>
       </c>
       <c r="AU163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW163">
         <v>2</v>
@@ -34703,10 +34703,10 @@
         <v>2</v>
       </c>
       <c r="AY163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AZ163">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA163">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['65', '76', '79']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -812,6 +815,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['75', '89']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1438,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ3">
         <v>0.06</v>
@@ -2131,7 +2137,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2256,7 +2262,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2462,7 +2468,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2874,7 +2880,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2955,7 +2961,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3364,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3492,7 +3498,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3573,7 +3579,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -3698,7 +3704,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4188,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4522,7 +4528,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4806,7 +4812,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -4934,7 +4940,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5140,7 +5146,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5552,7 +5558,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ22">
         <v>1.47</v>
@@ -5758,7 +5764,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5964,7 +5970,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6170,7 +6176,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6582,7 +6588,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6788,7 +6794,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6994,7 +7000,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7200,7 +7206,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7278,7 +7284,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7406,7 +7412,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7484,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -7612,7 +7618,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7693,7 +7699,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -8230,7 +8236,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8308,7 +8314,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8436,7 +8442,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8929,7 +8935,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9338,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ40">
         <v>1.47</v>
@@ -9672,7 +9678,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9753,7 +9759,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ42">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -10290,7 +10296,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10574,10 +10580,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ46">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -10702,7 +10708,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10908,7 +10914,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -10989,7 +10995,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11398,7 +11404,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ50">
         <v>1.94</v>
@@ -11526,7 +11532,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -12431,7 +12437,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ55">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12556,7 +12562,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12762,7 +12768,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12840,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -12968,7 +12974,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13255,7 +13261,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ59">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13380,7 +13386,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13664,7 +13670,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -13792,7 +13798,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14488,7 +14494,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ65">
         <v>0.06</v>
@@ -14616,7 +14622,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14697,7 +14703,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15028,7 +15034,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15440,7 +15446,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15646,7 +15652,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15930,10 +15936,10 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16058,7 +16064,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16136,10 +16142,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ73">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16264,7 +16270,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16470,7 +16476,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16676,7 +16682,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16882,7 +16888,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17375,7 +17381,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -17784,7 +17790,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -18118,7 +18124,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18199,7 +18205,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -18324,7 +18330,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18942,7 +18948,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19148,7 +19154,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19226,7 +19232,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -19354,7 +19360,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19435,7 +19441,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19844,7 +19850,7 @@
         <v>0.11</v>
       </c>
       <c r="AP91">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ91">
         <v>0.06</v>
@@ -19972,7 +19978,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20384,7 +20390,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20590,7 +20596,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20796,7 +20802,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21289,7 +21295,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21414,7 +21420,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21620,7 +21626,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21698,7 +21704,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -21907,7 +21913,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -22238,7 +22244,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22522,7 +22528,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -23268,7 +23274,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23349,7 +23355,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23552,7 +23558,7 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -23680,7 +23686,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23886,7 +23892,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24170,7 +24176,7 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24298,7 +24304,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24791,7 +24797,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -24916,7 +24922,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25122,7 +25128,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25328,7 +25334,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25946,7 +25952,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26230,7 +26236,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26436,10 +26442,10 @@
         <v>0.82</v>
       </c>
       <c r="AP123">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -26564,7 +26570,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26645,7 +26651,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -26976,7 +26982,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27388,7 +27394,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27672,7 +27678,7 @@
         <v>0.91</v>
       </c>
       <c r="AP129">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ129">
         <v>1.38</v>
@@ -27800,7 +27806,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28006,7 +28012,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28087,7 +28093,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ131">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28418,7 +28424,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28496,7 +28502,7 @@
         <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ133">
         <v>1.47</v>
@@ -28830,7 +28836,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28911,7 +28917,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ135">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29242,7 +29248,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29448,7 +29454,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29654,7 +29660,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29860,7 +29866,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29938,10 +29944,10 @@
         <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ140">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30066,7 +30072,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30272,7 +30278,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30478,7 +30484,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30559,7 +30565,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR143">
         <v>1.45</v>
@@ -30684,7 +30690,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30968,7 +30974,7 @@
         <v>2</v>
       </c>
       <c r="AP145">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ145">
         <v>1.94</v>
@@ -31096,7 +31102,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31302,7 +31308,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31508,7 +31514,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31589,7 +31595,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ148">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR148">
         <v>1.26</v>
@@ -31714,7 +31720,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31792,7 +31798,7 @@
         <v>1.14</v>
       </c>
       <c r="AP149">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ149">
         <v>1.38</v>
@@ -31920,7 +31926,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32207,7 +32213,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>1.94</v>
@@ -32332,7 +32338,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32538,7 +32544,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32744,7 +32750,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32825,7 +32831,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ154">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33028,7 +33034,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ155">
         <v>0.82</v>
@@ -33156,7 +33162,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33237,7 +33243,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ156">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33568,7 +33574,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33649,7 +33655,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -33852,7 +33858,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ159">
         <v>0.06</v>
@@ -33980,7 +33986,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34392,7 +34398,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34598,7 +34604,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -34691,10 +34697,10 @@
         <v>2.69</v>
       </c>
       <c r="AU163">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW163">
         <v>2</v>
@@ -34703,10 +34709,10 @@
         <v>2</v>
       </c>
       <c r="AY163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA163">
         <v>3</v>
@@ -34961,6 +34967,418 @@
       </c>
       <c r="BP164">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6441849</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45417.5</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>87</v>
+      </c>
+      <c r="P165" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q165">
+        <v>1.9</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>7.44</v>
+      </c>
+      <c r="T165">
+        <v>1.38</v>
+      </c>
+      <c r="U165">
+        <v>2.9</v>
+      </c>
+      <c r="V165">
+        <v>2.78</v>
+      </c>
+      <c r="W165">
+        <v>1.41</v>
+      </c>
+      <c r="X165">
+        <v>6.9</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>1.37</v>
+      </c>
+      <c r="AA165">
+        <v>4.2</v>
+      </c>
+      <c r="AB165">
+        <v>6.6</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>9.4</v>
+      </c>
+      <c r="AE165">
+        <v>1.26</v>
+      </c>
+      <c r="AF165">
+        <v>3.34</v>
+      </c>
+      <c r="AG165">
+        <v>1.96</v>
+      </c>
+      <c r="AH165">
+        <v>1.86</v>
+      </c>
+      <c r="AI165">
+        <v>2.25</v>
+      </c>
+      <c r="AJ165">
+        <v>1.6</v>
+      </c>
+      <c r="AK165">
+        <v>1.06</v>
+      </c>
+      <c r="AL165">
+        <v>1.18</v>
+      </c>
+      <c r="AM165">
+        <v>2.91</v>
+      </c>
+      <c r="AN165">
+        <v>1.88</v>
+      </c>
+      <c r="AO165">
+        <v>1.13</v>
+      </c>
+      <c r="AP165">
+        <v>1.76</v>
+      </c>
+      <c r="AQ165">
+        <v>1.24</v>
+      </c>
+      <c r="AR165">
+        <v>1.68</v>
+      </c>
+      <c r="AS165">
+        <v>1.3</v>
+      </c>
+      <c r="AT165">
+        <v>2.98</v>
+      </c>
+      <c r="AU165">
+        <v>2</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>3</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
+        <v>5</v>
+      </c>
+      <c r="AZ165">
+        <v>8</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>5</v>
+      </c>
+      <c r="BD165">
+        <v>1.3</v>
+      </c>
+      <c r="BE165">
+        <v>9.5</v>
+      </c>
+      <c r="BF165">
+        <v>4.44</v>
+      </c>
+      <c r="BG165">
+        <v>1.21</v>
+      </c>
+      <c r="BH165">
+        <v>3.74</v>
+      </c>
+      <c r="BI165">
+        <v>1.41</v>
+      </c>
+      <c r="BJ165">
+        <v>2.6</v>
+      </c>
+      <c r="BK165">
+        <v>1.8</v>
+      </c>
+      <c r="BL165">
+        <v>2</v>
+      </c>
+      <c r="BM165">
+        <v>2.23</v>
+      </c>
+      <c r="BN165">
+        <v>1.63</v>
+      </c>
+      <c r="BO165">
+        <v>2.88</v>
+      </c>
+      <c r="BP165">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6441853</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45417.60416666666</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>70</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>186</v>
+      </c>
+      <c r="P166" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q166">
+        <v>3.48</v>
+      </c>
+      <c r="R166">
+        <v>2.04</v>
+      </c>
+      <c r="S166">
+        <v>3.05</v>
+      </c>
+      <c r="T166">
+        <v>1.44</v>
+      </c>
+      <c r="U166">
+        <v>2.67</v>
+      </c>
+      <c r="V166">
+        <v>3.04</v>
+      </c>
+      <c r="W166">
+        <v>1.35</v>
+      </c>
+      <c r="X166">
+        <v>7.9</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>2.81</v>
+      </c>
+      <c r="AA166">
+        <v>3.28</v>
+      </c>
+      <c r="AB166">
+        <v>2.45</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.33</v>
+      </c>
+      <c r="AF166">
+        <v>2.93</v>
+      </c>
+      <c r="AG166">
+        <v>2.09</v>
+      </c>
+      <c r="AH166">
+        <v>1.72</v>
+      </c>
+      <c r="AI166">
+        <v>1.82</v>
+      </c>
+      <c r="AJ166">
+        <v>1.88</v>
+      </c>
+      <c r="AK166">
+        <v>1.52</v>
+      </c>
+      <c r="AL166">
+        <v>1.31</v>
+      </c>
+      <c r="AM166">
+        <v>1.41</v>
+      </c>
+      <c r="AN166">
+        <v>2.56</v>
+      </c>
+      <c r="AO166">
+        <v>2.13</v>
+      </c>
+      <c r="AP166">
+        <v>2.41</v>
+      </c>
+      <c r="AQ166">
+        <v>2.18</v>
+      </c>
+      <c r="AR166">
+        <v>2.11</v>
+      </c>
+      <c r="AS166">
+        <v>1.95</v>
+      </c>
+      <c r="AT166">
+        <v>4.06</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="AW166">
+        <v>13</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>17</v>
+      </c>
+      <c r="AZ166">
+        <v>2</v>
+      </c>
+      <c r="BA166">
+        <v>7</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>2.05</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>2</v>
+      </c>
+      <c r="BG166">
+        <v>1.47</v>
+      </c>
+      <c r="BH166">
+        <v>2.6</v>
+      </c>
+      <c r="BI166">
+        <v>1.95</v>
+      </c>
+      <c r="BJ166">
+        <v>1.85</v>
+      </c>
+      <c r="BK166">
+        <v>2.28</v>
+      </c>
+      <c r="BL166">
+        <v>1.6</v>
+      </c>
+      <c r="BM166">
+        <v>3.08</v>
+      </c>
+      <c r="BN166">
+        <v>1.3</v>
+      </c>
+      <c r="BO166">
+        <v>3.8</v>
+      </c>
+      <c r="BP166">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -35315,22 +35315,22 @@
         <v>4.06</v>
       </c>
       <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>17</v>
+      </c>
+      <c r="AX166">
+        <v>1</v>
+      </c>
+      <c r="AY166">
+        <v>23</v>
+      </c>
+      <c r="AZ166">
         <v>4</v>
-      </c>
-      <c r="AV166">
-        <v>0</v>
-      </c>
-      <c r="AW166">
-        <v>13</v>
-      </c>
-      <c r="AX166">
-        <v>2</v>
-      </c>
-      <c r="AY166">
-        <v>17</v>
-      </c>
-      <c r="AZ166">
-        <v>2</v>
       </c>
       <c r="BA166">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['59', '68']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1441,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2134,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ5">
         <v>1.24</v>
@@ -2262,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2468,7 +2471,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2752,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
         <v>1.47</v>
@@ -2880,7 +2883,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3086,7 +3089,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3498,7 +3501,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3704,7 +3707,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4528,7 +4531,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4940,7 +4943,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5146,7 +5149,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5558,7 +5561,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5764,7 +5767,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5842,7 +5845,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -5970,7 +5973,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6176,7 +6179,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6588,7 +6591,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6794,7 +6797,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7000,7 +7003,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7206,7 +7209,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7412,7 +7415,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7618,7 +7621,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8236,7 +8239,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8442,7 +8445,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8520,7 +8523,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ36">
         <v>1.94</v>
@@ -9678,7 +9681,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10296,7 +10299,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10708,7 +10711,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10914,7 +10917,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11532,7 +11535,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -12434,7 +12437,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ55">
         <v>2.18</v>
@@ -12562,7 +12565,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12768,7 +12771,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12974,7 +12977,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13386,7 +13389,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13798,7 +13801,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14288,7 +14291,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -14622,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15034,7 +15037,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15446,7 +15449,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15652,7 +15655,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16064,7 +16067,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16270,7 +16273,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16476,7 +16479,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16682,7 +16685,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16888,7 +16891,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17172,7 +17175,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ78">
         <v>0.06</v>
@@ -18124,7 +18127,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18330,7 +18333,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18614,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18948,7 +18951,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19154,7 +19157,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19360,7 +19363,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19438,7 +19441,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ89">
         <v>1.24</v>
@@ -19978,7 +19981,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20390,7 +20393,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20596,7 +20599,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20674,7 +20677,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ95">
         <v>1.88</v>
@@ -20802,7 +20805,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21420,7 +21423,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21498,7 +21501,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ99">
         <v>1.47</v>
@@ -21626,7 +21629,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22244,7 +22247,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23274,7 +23277,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23686,7 +23689,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23764,7 +23767,7 @@
         <v>1.8</v>
       </c>
       <c r="AP110">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ110">
         <v>1.88</v>
@@ -23892,7 +23895,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24304,7 +24307,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24922,7 +24925,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25128,7 +25131,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25334,7 +25337,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25824,7 +25827,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -25952,7 +25955,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26570,7 +26573,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26982,7 +26985,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27394,7 +27397,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27472,7 +27475,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ128">
         <v>1.94</v>
@@ -27806,7 +27809,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28012,7 +28015,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28424,7 +28427,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28836,7 +28839,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29248,7 +29251,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29454,7 +29457,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29660,7 +29663,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29866,7 +29869,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30072,7 +30075,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30278,7 +30281,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30484,7 +30487,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30690,7 +30693,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31102,7 +31105,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31308,7 +31311,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31514,7 +31517,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31592,7 +31595,7 @@
         <v>1.92</v>
       </c>
       <c r="AP148">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ148">
         <v>2.18</v>
@@ -31720,7 +31723,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31926,7 +31929,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32338,7 +32341,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32544,7 +32547,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32750,7 +32753,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33162,7 +33165,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33574,7 +33577,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33986,7 +33989,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34064,7 +34067,7 @@
         <v>1.27</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ160">
         <v>1.38</v>
@@ -34398,7 +34401,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34604,7 +34607,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35222,7 +35225,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35379,6 +35382,212 @@
       </c>
       <c r="BP166">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6441857</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45422.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>73</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>187</v>
+      </c>
+      <c r="P167" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q167">
+        <v>2.01</v>
+      </c>
+      <c r="R167">
+        <v>2.44</v>
+      </c>
+      <c r="S167">
+        <v>6.08</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.26</v>
+      </c>
+      <c r="V167">
+        <v>2.65</v>
+      </c>
+      <c r="W167">
+        <v>1.46</v>
+      </c>
+      <c r="X167">
+        <v>6</v>
+      </c>
+      <c r="Y167">
+        <v>1.11</v>
+      </c>
+      <c r="Z167">
+        <v>1.5</v>
+      </c>
+      <c r="AA167">
+        <v>4.1</v>
+      </c>
+      <c r="AB167">
+        <v>5.67</v>
+      </c>
+      <c r="AC167">
+        <v>1.03</v>
+      </c>
+      <c r="AD167">
+        <v>13.3</v>
+      </c>
+      <c r="AE167">
+        <v>1.24</v>
+      </c>
+      <c r="AF167">
+        <v>3.89</v>
+      </c>
+      <c r="AG167">
+        <v>1.77</v>
+      </c>
+      <c r="AH167">
+        <v>2.04</v>
+      </c>
+      <c r="AI167">
+        <v>1.87</v>
+      </c>
+      <c r="AJ167">
+        <v>1.89</v>
+      </c>
+      <c r="AK167">
+        <v>1.13</v>
+      </c>
+      <c r="AL167">
+        <v>1.21</v>
+      </c>
+      <c r="AM167">
+        <v>2.5</v>
+      </c>
+      <c r="AN167">
+        <v>1.31</v>
+      </c>
+      <c r="AO167">
+        <v>0.06</v>
+      </c>
+      <c r="AP167">
+        <v>1.41</v>
+      </c>
+      <c r="AQ167">
+        <v>0.06</v>
+      </c>
+      <c r="AR167">
+        <v>1.21</v>
+      </c>
+      <c r="AS167">
+        <v>1.04</v>
+      </c>
+      <c r="AT167">
+        <v>2.25</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>15</v>
+      </c>
+      <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
+        <v>7</v>
+      </c>
+      <c r="BB167">
+        <v>4</v>
+      </c>
+      <c r="BC167">
+        <v>11</v>
+      </c>
+      <c r="BD167">
+        <v>1.5</v>
+      </c>
+      <c r="BE167">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF167">
+        <v>3.24</v>
+      </c>
+      <c r="BG167">
+        <v>1.35</v>
+      </c>
+      <c r="BH167">
+        <v>2.84</v>
+      </c>
+      <c r="BI167">
+        <v>1.8</v>
+      </c>
+      <c r="BJ167">
+        <v>2</v>
+      </c>
+      <c r="BK167">
+        <v>2.11</v>
+      </c>
+      <c r="BL167">
+        <v>1.65</v>
+      </c>
+      <c r="BM167">
+        <v>2.78</v>
+      </c>
+      <c r="BN167">
+        <v>1.36</v>
+      </c>
+      <c r="BO167">
+        <v>3.86</v>
+      </c>
+      <c r="BP167">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['59', '68']</t>
   </si>
   <si>
+    <t>['16', '30', '60']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -821,6 +824,9 @@
   </si>
   <si>
     <t>['75', '89']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1447,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ2">
         <v>1.94</v>
@@ -2265,7 +2271,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2471,7 +2477,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2549,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
         <v>0.9399999999999999</v>
@@ -2883,7 +2889,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3089,7 +3095,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3170,7 +3176,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3376,7 +3382,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3501,7 +3507,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3707,7 +3713,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ14">
         <v>0.82</v>
@@ -4403,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ16">
         <v>0.06</v>
@@ -4531,7 +4537,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4612,7 +4618,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4943,7 +4949,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5149,7 +5155,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5561,7 +5567,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5767,7 +5773,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5973,7 +5979,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6051,7 +6057,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ24">
         <v>1.94</v>
@@ -6179,7 +6185,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6260,7 +6266,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6591,7 +6597,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6669,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ27">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6797,7 +6803,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7003,7 +7009,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7209,7 +7215,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7415,7 +7421,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7621,7 +7627,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8111,7 +8117,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ34">
         <v>0.9399999999999999</v>
@@ -8239,7 +8245,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8320,7 +8326,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8445,7 +8451,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8729,7 +8735,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9556,7 +9562,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9681,7 +9687,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9965,7 +9971,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ43">
         <v>0.82</v>
@@ -10174,7 +10180,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10299,7 +10305,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10380,7 +10386,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10711,7 +10717,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10917,7 +10923,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11535,7 +11541,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11819,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12231,7 +12237,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ54">
         <v>1.47</v>
@@ -12565,7 +12571,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12646,7 +12652,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12771,7 +12777,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12852,7 +12858,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -12977,7 +12983,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13389,7 +13395,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13801,7 +13807,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13879,7 +13885,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ62">
         <v>1.47</v>
@@ -14088,7 +14094,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14294,7 +14300,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14625,7 +14631,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14703,7 +14709,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
         <v>2.18</v>
@@ -15037,7 +15043,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15449,7 +15455,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15655,7 +15661,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16067,7 +16073,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16273,7 +16279,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16479,7 +16485,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16557,10 +16563,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ75">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16685,7 +16691,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16763,10 +16769,10 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16891,7 +16897,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17590,7 +17596,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18127,7 +18133,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18333,7 +18339,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18823,7 +18829,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ86">
         <v>0.06</v>
@@ -18951,7 +18957,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19029,10 +19035,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19157,7 +19163,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19363,7 +19369,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19981,7 +19987,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20265,7 +20271,7 @@
         <v>2.11</v>
       </c>
       <c r="AP93">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ93">
         <v>1.94</v>
@@ -20393,7 +20399,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20471,7 +20477,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ94">
         <v>1.47</v>
@@ -20599,7 +20605,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20680,7 +20686,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ95">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -20805,7 +20811,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20883,7 +20889,7 @@
         <v>0.9</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ96">
         <v>0.9399999999999999</v>
@@ -21423,7 +21429,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21629,7 +21635,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21710,7 +21716,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22247,7 +22253,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22737,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ105">
         <v>0.82</v>
@@ -22943,7 +22949,7 @@
         <v>0.08</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ106">
         <v>0.06</v>
@@ -23152,7 +23158,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23277,7 +23283,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23689,7 +23695,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23770,7 +23776,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ110">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -23895,7 +23901,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24307,7 +24313,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24797,7 +24803,7 @@
         <v>0.9</v>
       </c>
       <c r="AP115">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ115">
         <v>1.24</v>
@@ -24925,7 +24931,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25006,7 +25012,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25131,7 +25137,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25209,7 +25215,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
         <v>1.94</v>
@@ -25337,7 +25343,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25621,10 +25627,10 @@
         <v>1.91</v>
       </c>
       <c r="AP119">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -25955,7 +25961,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26573,7 +26579,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26985,7 +26991,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27063,7 +27069,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27397,7 +27403,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27684,7 +27690,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -27809,7 +27815,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27887,7 +27893,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ130">
         <v>0.9399999999999999</v>
@@ -28015,7 +28021,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28302,7 +28308,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR132">
         <v>1.46</v>
@@ -28427,7 +28433,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28839,7 +28845,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29251,7 +29257,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29332,7 +29338,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ137">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29457,7 +29463,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29535,7 +29541,7 @@
         <v>0.77</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ138">
         <v>0.82</v>
@@ -29663,7 +29669,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29744,7 +29750,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ139">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -29869,7 +29875,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30075,7 +30081,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30156,7 +30162,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR141">
         <v>1.29</v>
@@ -30281,7 +30287,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30487,7 +30493,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30693,7 +30699,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30771,7 +30777,7 @@
         <v>0.79</v>
       </c>
       <c r="AP144">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31105,7 +31111,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31311,7 +31317,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31389,7 +31395,7 @@
         <v>1.47</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -31517,7 +31523,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31723,7 +31729,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31804,7 +31810,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ149">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -31929,7 +31935,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32010,7 +32016,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ150">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR150">
         <v>1.17</v>
@@ -32213,7 +32219,7 @@
         <v>1.07</v>
       </c>
       <c r="AP151">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ151">
         <v>1.24</v>
@@ -32341,7 +32347,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32547,7 +32553,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32753,7 +32759,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33165,7 +33171,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33577,7 +33583,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33655,7 +33661,7 @@
         <v>2.07</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ158">
         <v>2.18</v>
@@ -33989,7 +33995,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34070,7 +34076,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.23</v>
@@ -34276,7 +34282,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ161">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR161">
         <v>1.56</v>
@@ -34401,7 +34407,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34607,7 +34613,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35225,7 +35231,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35588,6 +35594,418 @@
       </c>
       <c r="BP167">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6441854</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45423.5</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>188</v>
+      </c>
+      <c r="P168" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q168">
+        <v>6.27</v>
+      </c>
+      <c r="R168">
+        <v>2.38</v>
+      </c>
+      <c r="S168">
+        <v>2.04</v>
+      </c>
+      <c r="T168">
+        <v>1.35</v>
+      </c>
+      <c r="U168">
+        <v>3.1</v>
+      </c>
+      <c r="V168">
+        <v>2.78</v>
+      </c>
+      <c r="W168">
+        <v>1.42</v>
+      </c>
+      <c r="X168">
+        <v>7</v>
+      </c>
+      <c r="Y168">
+        <v>1.1</v>
+      </c>
+      <c r="Z168">
+        <v>6.35</v>
+      </c>
+      <c r="AA168">
+        <v>4.28</v>
+      </c>
+      <c r="AB168">
+        <v>1.43</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>13</v>
+      </c>
+      <c r="AE168">
+        <v>1.25</v>
+      </c>
+      <c r="AF168">
+        <v>3.5</v>
+      </c>
+      <c r="AG168">
+        <v>1.8</v>
+      </c>
+      <c r="AH168">
+        <v>1.9</v>
+      </c>
+      <c r="AI168">
+        <v>2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.77</v>
+      </c>
+      <c r="AK168">
+        <v>2.5</v>
+      </c>
+      <c r="AL168">
+        <v>1.22</v>
+      </c>
+      <c r="AM168">
+        <v>1.11</v>
+      </c>
+      <c r="AN168">
+        <v>1.13</v>
+      </c>
+      <c r="AO168">
+        <v>1.88</v>
+      </c>
+      <c r="AP168">
+        <v>1.24</v>
+      </c>
+      <c r="AQ168">
+        <v>1.76</v>
+      </c>
+      <c r="AR168">
+        <v>1.34</v>
+      </c>
+      <c r="AS168">
+        <v>1.5</v>
+      </c>
+      <c r="AT168">
+        <v>2.84</v>
+      </c>
+      <c r="AU168">
+        <v>5</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>3</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>11</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>3.83</v>
+      </c>
+      <c r="BE168">
+        <v>9</v>
+      </c>
+      <c r="BF168">
+        <v>1.37</v>
+      </c>
+      <c r="BG168">
+        <v>1.24</v>
+      </c>
+      <c r="BH168">
+        <v>3.48</v>
+      </c>
+      <c r="BI168">
+        <v>1.52</v>
+      </c>
+      <c r="BJ168">
+        <v>2.47</v>
+      </c>
+      <c r="BK168">
+        <v>1.92</v>
+      </c>
+      <c r="BL168">
+        <v>1.88</v>
+      </c>
+      <c r="BM168">
+        <v>2.31</v>
+      </c>
+      <c r="BN168">
+        <v>1.59</v>
+      </c>
+      <c r="BO168">
+        <v>3.08</v>
+      </c>
+      <c r="BP168">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6441855</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45423.60416666666</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>152</v>
+      </c>
+      <c r="P169" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q169">
+        <v>1.75</v>
+      </c>
+      <c r="R169">
+        <v>2.66</v>
+      </c>
+      <c r="S169">
+        <v>8.02</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="U169">
+        <v>3.25</v>
+      </c>
+      <c r="V169">
+        <v>2.49</v>
+      </c>
+      <c r="W169">
+        <v>1.52</v>
+      </c>
+      <c r="X169">
+        <v>6</v>
+      </c>
+      <c r="Y169">
+        <v>1.11</v>
+      </c>
+      <c r="Z169">
+        <v>1.35</v>
+      </c>
+      <c r="AA169">
+        <v>4.5</v>
+      </c>
+      <c r="AB169">
+        <v>7.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>11</v>
+      </c>
+      <c r="AE169">
+        <v>1.2</v>
+      </c>
+      <c r="AF169">
+        <v>4</v>
+      </c>
+      <c r="AG169">
+        <v>1.62</v>
+      </c>
+      <c r="AH169">
+        <v>2.2</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.85</v>
+      </c>
+      <c r="AK169">
+        <v>1.08</v>
+      </c>
+      <c r="AL169">
+        <v>1.18</v>
+      </c>
+      <c r="AM169">
+        <v>3</v>
+      </c>
+      <c r="AN169">
+        <v>2.38</v>
+      </c>
+      <c r="AO169">
+        <v>1.38</v>
+      </c>
+      <c r="AP169">
+        <v>2.41</v>
+      </c>
+      <c r="AQ169">
+        <v>1.29</v>
+      </c>
+      <c r="AR169">
+        <v>1.96</v>
+      </c>
+      <c r="AS169">
+        <v>1.4</v>
+      </c>
+      <c r="AT169">
+        <v>3.36</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>3</v>
+      </c>
+      <c r="AW169">
+        <v>5</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>6</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>11</v>
+      </c>
+      <c r="BD169">
+        <v>1.3</v>
+      </c>
+      <c r="BE169">
+        <v>9.5</v>
+      </c>
+      <c r="BF169">
+        <v>4.58</v>
+      </c>
+      <c r="BG169">
+        <v>1.31</v>
+      </c>
+      <c r="BH169">
+        <v>3.04</v>
+      </c>
+      <c r="BI169">
+        <v>1.6</v>
+      </c>
+      <c r="BJ169">
+        <v>2.29</v>
+      </c>
+      <c r="BK169">
+        <v>2</v>
+      </c>
+      <c r="BL169">
+        <v>1.79</v>
+      </c>
+      <c r="BM169">
+        <v>2.6</v>
+      </c>
+      <c r="BN169">
+        <v>1.47</v>
+      </c>
+      <c r="BO169">
+        <v>3.56</v>
+      </c>
+      <c r="BP169">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,12 @@
     <t>['16', '30', '60']</t>
   </si>
   <si>
+    <t>['70', '75']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -674,9 +680,6 @@
   </si>
   <si>
     <t>['90+7']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1450,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1528,7 +1531,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ2">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1940,7 +1943,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2271,7 +2274,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2349,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2477,7 +2480,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2558,7 +2561,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2889,7 +2892,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2967,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9">
         <v>2.18</v>
@@ -3095,7 +3098,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3507,7 +3510,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3585,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12">
         <v>1.24</v>
@@ -3713,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4537,7 +4540,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4615,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ17">
         <v>1.29</v>
@@ -4824,7 +4827,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>1.98</v>
@@ -4949,7 +4952,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5155,7 +5158,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5236,7 +5239,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ20">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5567,7 +5570,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5773,7 +5776,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5854,7 +5857,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5979,7 +5982,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6060,7 +6063,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ24">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR24">
         <v>1.61</v>
@@ -6185,7 +6188,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6263,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6469,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ26">
         <v>0.06</v>
@@ -6597,7 +6600,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6803,7 +6806,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7009,7 +7012,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7215,7 +7218,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7421,7 +7424,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7627,7 +7630,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7911,7 +7914,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>0.06</v>
@@ -8120,7 +8123,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ34">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.83</v>
@@ -8245,7 +8248,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8451,7 +8454,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8532,7 +8535,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ36">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -9147,7 +9150,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ39">
         <v>0.82</v>
@@ -9687,7 +9690,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10305,7 +10308,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10717,7 +10720,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10795,7 +10798,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
         <v>1.47</v>
@@ -10923,7 +10926,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11416,7 +11419,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR50">
         <v>2.42</v>
@@ -11541,7 +11544,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11619,7 +11622,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51">
         <v>0.82</v>
@@ -12034,7 +12037,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ53">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12571,7 +12574,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12649,7 +12652,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56">
         <v>1.76</v>
@@ -12777,7 +12780,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12983,7 +12986,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13064,7 +13067,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR58">
         <v>1.37</v>
@@ -13395,7 +13398,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13807,7 +13810,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14091,7 +14094,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
         <v>1.76</v>
@@ -14631,7 +14634,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14915,10 +14918,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15043,7 +15046,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15124,7 +15127,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ68">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR68">
         <v>2.03</v>
@@ -15455,7 +15458,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15661,7 +15664,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16073,7 +16076,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16279,7 +16282,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16357,10 +16360,10 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -16485,7 +16488,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16691,7 +16694,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16897,7 +16900,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16975,10 +16978,10 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ77">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17387,7 +17390,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ79">
         <v>1.24</v>
@@ -18133,7 +18136,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18339,7 +18342,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18417,10 +18420,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18957,7 +18960,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19163,7 +19166,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19244,7 +19247,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>2.24</v>
@@ -19369,7 +19372,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19653,7 +19656,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19987,7 +19990,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20068,7 +20071,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -20274,7 +20277,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ93">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20399,7 +20402,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20605,7 +20608,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20811,7 +20814,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20892,7 +20895,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ96">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21301,7 +21304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ98">
         <v>2.18</v>
@@ -21429,7 +21432,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21635,7 +21638,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21919,7 +21922,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101">
         <v>1.24</v>
@@ -22253,7 +22256,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22334,7 +22337,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -23155,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ107">
         <v>1.29</v>
@@ -23283,7 +23286,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23361,7 +23364,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
         <v>2.18</v>
@@ -23570,7 +23573,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23695,7 +23698,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23901,7 +23904,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24313,7 +24316,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24394,7 +24397,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ113">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24931,7 +24934,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25009,7 +25012,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
         <v>1.29</v>
@@ -25137,7 +25140,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25218,7 +25221,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ117">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25343,7 +25346,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25421,7 +25424,7 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ118">
         <v>0.06</v>
@@ -25836,7 +25839,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -25961,7 +25964,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26579,7 +26582,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26991,7 +26994,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27275,7 +27278,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ127">
         <v>0.06</v>
@@ -27403,7 +27406,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27484,7 +27487,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ128">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR128">
         <v>1.25</v>
@@ -27815,7 +27818,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27896,7 +27899,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.9</v>
@@ -28021,7 +28024,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28433,7 +28436,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28717,7 +28720,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ134">
         <v>0.82</v>
@@ -28845,7 +28848,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29129,7 +29132,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ136">
         <v>1.47</v>
@@ -29257,7 +29260,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29463,7 +29466,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29669,7 +29672,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29875,7 +29878,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30081,7 +30084,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30287,7 +30290,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30365,7 +30368,7 @@
         <v>0.93</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
         <v>0.82</v>
@@ -30493,7 +30496,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30699,7 +30702,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30986,7 +30989,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ145">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR145">
         <v>2.14</v>
@@ -31111,7 +31114,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31192,7 +31195,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31317,7 +31320,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31523,7 +31526,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31729,7 +31732,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31935,7 +31938,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32013,7 +32016,7 @@
         <v>1.93</v>
       </c>
       <c r="AP150">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ150">
         <v>1.76</v>
@@ -32347,7 +32350,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32553,7 +32556,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32634,7 +32637,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ153">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR153">
         <v>1.47</v>
@@ -32759,7 +32762,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32837,7 +32840,7 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ154">
         <v>2.18</v>
@@ -33171,7 +33174,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33455,10 +33458,10 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR157">
         <v>1.17</v>
@@ -33583,7 +33586,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33995,7 +33998,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34279,7 +34282,7 @@
         <v>2</v>
       </c>
       <c r="AP161">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ161">
         <v>1.76</v>
@@ -34407,7 +34410,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34613,7 +34616,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35231,7 +35234,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35643,7 +35646,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -36006,6 +36009,418 @@
       </c>
       <c r="BP169">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6441856</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45424.5</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>79</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>189</v>
+      </c>
+      <c r="P170" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q170">
+        <v>2.15</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>5</v>
+      </c>
+      <c r="T170">
+        <v>1.33</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.48</v>
+      </c>
+      <c r="X170">
+        <v>5.75</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>1.67</v>
+      </c>
+      <c r="AA170">
+        <v>3.75</v>
+      </c>
+      <c r="AB170">
+        <v>4.33</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.25</v>
+      </c>
+      <c r="AF170">
+        <v>3.6</v>
+      </c>
+      <c r="AG170">
+        <v>1.8</v>
+      </c>
+      <c r="AH170">
+        <v>1.91</v>
+      </c>
+      <c r="AI170">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170">
+        <v>1.91</v>
+      </c>
+      <c r="AK170">
+        <v>1.18</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>2.2</v>
+      </c>
+      <c r="AN170">
+        <v>1.38</v>
+      </c>
+      <c r="AO170">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP170">
+        <v>1.47</v>
+      </c>
+      <c r="AQ170">
+        <v>0.88</v>
+      </c>
+      <c r="AR170">
+        <v>1.56</v>
+      </c>
+      <c r="AS170">
+        <v>1.27</v>
+      </c>
+      <c r="AT170">
+        <v>2.83</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>9</v>
+      </c>
+      <c r="AZ170">
+        <v>8</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.55</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>2.92</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.42</v>
+      </c>
+      <c r="BI170">
+        <v>1.48</v>
+      </c>
+      <c r="BJ170">
+        <v>2.53</v>
+      </c>
+      <c r="BK170">
+        <v>2</v>
+      </c>
+      <c r="BL170">
+        <v>1.8</v>
+      </c>
+      <c r="BM170">
+        <v>2.3</v>
+      </c>
+      <c r="BN170">
+        <v>1.58</v>
+      </c>
+      <c r="BO170">
+        <v>3.14</v>
+      </c>
+      <c r="BP170">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6441858</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45424.59027777778</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>190</v>
+      </c>
+      <c r="P171" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q171">
+        <v>4.75</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
+        <v>2.4</v>
+      </c>
+      <c r="T171">
+        <v>1.42</v>
+      </c>
+      <c r="U171">
+        <v>2.62</v>
+      </c>
+      <c r="V171">
+        <v>2.9</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.07</v>
+      </c>
+      <c r="Z171">
+        <v>4.2</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
+        <v>1.78</v>
+      </c>
+      <c r="AC171">
+        <v>1.04</v>
+      </c>
+      <c r="AD171">
+        <v>8.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.33</v>
+      </c>
+      <c r="AF171">
+        <v>3</v>
+      </c>
+      <c r="AG171">
+        <v>2.1</v>
+      </c>
+      <c r="AH171">
+        <v>1.67</v>
+      </c>
+      <c r="AI171">
+        <v>1.95</v>
+      </c>
+      <c r="AJ171">
+        <v>1.75</v>
+      </c>
+      <c r="AK171">
+        <v>2</v>
+      </c>
+      <c r="AL171">
+        <v>1.29</v>
+      </c>
+      <c r="AM171">
+        <v>1.22</v>
+      </c>
+      <c r="AN171">
+        <v>1.25</v>
+      </c>
+      <c r="AO171">
+        <v>1.94</v>
+      </c>
+      <c r="AP171">
+        <v>1.24</v>
+      </c>
+      <c r="AQ171">
+        <v>1.88</v>
+      </c>
+      <c r="AR171">
+        <v>1.2</v>
+      </c>
+      <c r="AS171">
+        <v>1.45</v>
+      </c>
+      <c r="AT171">
+        <v>2.65</v>
+      </c>
+      <c r="AU171">
+        <v>3</v>
+      </c>
+      <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
+        <v>3</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>6</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>10</v>
+      </c>
+      <c r="BC171">
+        <v>13</v>
+      </c>
+      <c r="BD171">
+        <v>2.65</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>1.69</v>
+      </c>
+      <c r="BG171">
+        <v>1.35</v>
+      </c>
+      <c r="BH171">
+        <v>2.84</v>
+      </c>
+      <c r="BI171">
+        <v>1.71</v>
+      </c>
+      <c r="BJ171">
+        <v>2.11</v>
+      </c>
+      <c r="BK171">
+        <v>2.13</v>
+      </c>
+      <c r="BL171">
+        <v>1.69</v>
+      </c>
+      <c r="BM171">
+        <v>2.79</v>
+      </c>
+      <c r="BN171">
+        <v>1.36</v>
+      </c>
+      <c r="BO171">
+        <v>3.6</v>
+      </c>
+      <c r="BP171">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -36357,10 +36357,10 @@
         <v>2.65</v>
       </c>
       <c r="AU171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW171">
         <v>3</v>
@@ -36369,10 +36369,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ171">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA171">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['47', '62']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -1191,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1453,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2149,7 +2152,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2274,7 +2277,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2480,7 +2483,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2892,7 +2895,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2970,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>2.18</v>
@@ -3098,7 +3101,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3510,7 +3513,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3591,7 +3594,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -3716,7 +3719,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4540,7 +4543,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4618,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.29</v>
@@ -4952,7 +4955,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5158,7 +5161,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5570,7 +5573,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5776,7 +5779,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5982,7 +5985,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6188,7 +6191,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6472,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.06</v>
@@ -6600,7 +6603,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6806,7 +6809,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7012,7 +7015,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7218,7 +7221,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7424,7 +7427,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7505,7 +7508,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -7630,7 +7633,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8248,7 +8251,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8454,7 +8457,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8947,7 +8950,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9150,7 +9153,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>0.82</v>
@@ -9690,7 +9693,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10308,7 +10311,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10720,7 +10723,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10798,7 +10801,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>1.47</v>
@@ -10926,7 +10929,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11007,7 +11010,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ48">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11544,7 +11547,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -12574,7 +12577,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12652,7 +12655,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1.76</v>
@@ -12780,7 +12783,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12986,7 +12989,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13273,7 +13276,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ59">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13398,7 +13401,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -14634,7 +14637,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14918,7 +14921,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15046,7 +15049,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15458,7 +15461,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15664,7 +15667,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15951,7 +15954,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ72">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16076,7 +16079,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16282,7 +16285,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16488,7 +16491,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16694,7 +16697,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16900,7 +16903,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16978,7 +16981,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.88</v>
@@ -17390,10 +17393,10 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -18136,7 +18139,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18342,7 +18345,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18960,7 +18963,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19166,7 +19169,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19372,7 +19375,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19453,7 +19456,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ89">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19990,7 +19993,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20402,7 +20405,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20608,7 +20611,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20814,7 +20817,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21304,7 +21307,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>2.18</v>
@@ -21432,7 +21435,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21638,7 +21641,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21925,7 +21928,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -22256,7 +22259,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23158,7 +23161,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1.29</v>
@@ -23286,7 +23289,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23698,7 +23701,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23904,7 +23907,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24316,7 +24319,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -24934,7 +24937,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25140,7 +25143,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25346,7 +25349,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25424,7 +25427,7 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>0.06</v>
@@ -25964,7 +25967,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26457,7 +26460,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ123">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -26582,7 +26585,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26994,7 +26997,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27406,7 +27409,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27818,7 +27821,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28024,7 +28027,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28105,7 +28108,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28436,7 +28439,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28720,7 +28723,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
         <v>0.82</v>
@@ -28848,7 +28851,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29132,7 +29135,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
         <v>1.47</v>
@@ -29260,7 +29263,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29466,7 +29469,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29672,7 +29675,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29878,7 +29881,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30084,7 +30087,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30290,7 +30293,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30496,7 +30499,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30577,7 +30580,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR143">
         <v>1.45</v>
@@ -30702,7 +30705,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31114,7 +31117,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31320,7 +31323,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31526,7 +31529,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31732,7 +31735,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31938,7 +31941,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32016,7 +32019,7 @@
         <v>1.93</v>
       </c>
       <c r="AP150">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
         <v>1.76</v>
@@ -32225,7 +32228,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.94</v>
@@ -32350,7 +32353,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32556,7 +32559,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32762,7 +32765,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33174,7 +33177,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33255,7 +33258,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33458,7 +33461,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157">
         <v>0.88</v>
@@ -33586,7 +33589,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33998,7 +34001,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34410,7 +34413,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34616,7 +34619,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35109,7 +35112,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ165">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR165">
         <v>1.68</v>
@@ -35234,7 +35237,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35646,7 +35649,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -36264,7 +36267,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36342,7 +36345,7 @@
         <v>1.94</v>
       </c>
       <c r="AP171">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>1.88</v>
@@ -36421,6 +36424,212 @@
       </c>
       <c r="BP171">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6441859</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45429.54166666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>191</v>
+      </c>
+      <c r="P172" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q172">
+        <v>2.88</v>
+      </c>
+      <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>3.85</v>
+      </c>
+      <c r="T172">
+        <v>1.48</v>
+      </c>
+      <c r="U172">
+        <v>2.45</v>
+      </c>
+      <c r="V172">
+        <v>3.1</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>9.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.06</v>
+      </c>
+      <c r="Z172">
+        <v>2.2</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>3.3</v>
+      </c>
+      <c r="AC172">
+        <v>1.08</v>
+      </c>
+      <c r="AD172">
+        <v>7</v>
+      </c>
+      <c r="AE172">
+        <v>1.4</v>
+      </c>
+      <c r="AF172">
+        <v>2.8</v>
+      </c>
+      <c r="AG172">
+        <v>2.2</v>
+      </c>
+      <c r="AH172">
+        <v>1.62</v>
+      </c>
+      <c r="AI172">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.3</v>
+      </c>
+      <c r="AL172">
+        <v>1.3</v>
+      </c>
+      <c r="AM172">
+        <v>1.62</v>
+      </c>
+      <c r="AN172">
+        <v>1.24</v>
+      </c>
+      <c r="AO172">
+        <v>1.24</v>
+      </c>
+      <c r="AP172">
+        <v>1.33</v>
+      </c>
+      <c r="AQ172">
+        <v>1.17</v>
+      </c>
+      <c r="AR172">
+        <v>1.19</v>
+      </c>
+      <c r="AS172">
+        <v>1.28</v>
+      </c>
+      <c r="AT172">
+        <v>2.47</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>9</v>
+      </c>
+      <c r="BA172">
+        <v>1</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>4</v>
+      </c>
+      <c r="BD172">
+        <v>1.59</v>
+      </c>
+      <c r="BE172">
+        <v>8.9</v>
+      </c>
+      <c r="BF172">
+        <v>2.75</v>
+      </c>
+      <c r="BG172">
+        <v>1.33</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>1.57</v>
+      </c>
+      <c r="BJ172">
+        <v>2.25</v>
+      </c>
+      <c r="BK172">
+        <v>1.95</v>
+      </c>
+      <c r="BL172">
+        <v>1.75</v>
+      </c>
+      <c r="BM172">
+        <v>2.4</v>
+      </c>
+      <c r="BN172">
+        <v>1.5</v>
+      </c>
+      <c r="BO172">
+        <v>3.2</v>
+      </c>
+      <c r="BP172">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['47', '62']</t>
   </si>
   <si>
+    <t>['50', '87', '90+3']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['3', '24', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1459,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2277,7 +2283,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2483,7 +2489,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2770,7 +2776,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>2.02</v>
@@ -2895,7 +2901,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3101,7 +3107,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3179,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3513,7 +3519,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3719,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4543,7 +4549,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4955,7 +4961,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5161,7 +5167,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5239,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ20">
         <v>1.88</v>
@@ -5573,7 +5579,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5654,7 +5660,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ22">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>2.49</v>
@@ -5779,7 +5785,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5985,7 +5991,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6191,7 +6197,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6603,7 +6609,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6809,7 +6815,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6890,7 +6896,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -7015,7 +7021,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7093,7 +7099,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ29">
         <v>0.82</v>
@@ -7221,7 +7227,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7427,7 +7433,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7633,7 +7639,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8251,7 +8257,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8457,7 +8463,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -9362,7 +9368,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR40">
         <v>1.89</v>
@@ -9693,7 +9699,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9771,7 +9777,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ42">
         <v>2.18</v>
@@ -10311,7 +10317,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10389,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ45">
         <v>1.76</v>
@@ -10723,7 +10729,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10804,7 +10810,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10929,7 +10935,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11547,7 +11553,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -12037,7 +12043,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -12246,7 +12252,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ54">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12577,7 +12583,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12783,7 +12789,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12989,7 +12995,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13273,7 +13279,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13401,7 +13407,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13894,7 +13900,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ62">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.89</v>
@@ -14637,7 +14643,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15049,7 +15055,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15461,7 +15467,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15539,7 +15545,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15667,7 +15673,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15748,7 +15754,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR71">
         <v>1.96</v>
@@ -16079,7 +16085,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16285,7 +16291,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16491,7 +16497,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16697,7 +16703,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16903,7 +16909,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -18011,10 +18017,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ82">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18139,7 +18145,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18345,7 +18351,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18963,7 +18969,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19169,7 +19175,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19375,7 +19381,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19993,7 +19999,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20405,7 +20411,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20486,7 +20492,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.9</v>
@@ -20611,7 +20617,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20817,7 +20823,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21435,7 +21441,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21516,7 +21522,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ99">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21641,7 +21647,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22259,7 +22265,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23289,7 +23295,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23701,7 +23707,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23907,7 +23913,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24194,7 +24200,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24319,7 +24325,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24397,7 +24403,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ113">
         <v>1.88</v>
@@ -24937,7 +24943,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25143,7 +25149,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25349,7 +25355,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25967,7 +25973,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26048,7 +26054,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26585,7 +26591,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26869,7 +26875,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ125">
         <v>0.82</v>
@@ -26997,7 +27003,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27409,7 +27415,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27821,7 +27827,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28027,7 +28033,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28439,7 +28445,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28520,7 +28526,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ133">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR133">
         <v>1.61</v>
@@ -28851,7 +28857,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28929,7 +28935,7 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ135">
         <v>2.18</v>
@@ -29138,7 +29144,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29263,7 +29269,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29469,7 +29475,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29675,7 +29681,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29753,7 +29759,7 @@
         <v>1.85</v>
       </c>
       <c r="AP139">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ139">
         <v>1.76</v>
@@ -29881,7 +29887,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30087,7 +30093,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30165,7 +30171,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30293,7 +30299,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30499,7 +30505,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30705,7 +30711,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31117,7 +31123,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31195,7 +31201,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ146">
         <v>0.88</v>
@@ -31323,7 +31329,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31404,7 +31410,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.33</v>
@@ -31529,7 +31535,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31735,7 +31741,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31941,7 +31947,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32353,7 +32359,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32559,7 +32565,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32765,7 +32771,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33177,7 +33183,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33255,7 +33261,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ156">
         <v>1.17</v>
@@ -33589,7 +33595,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -34001,7 +34007,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34413,7 +34419,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34491,7 +34497,7 @@
         <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -34619,7 +34625,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -34906,7 +34912,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ164">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.83</v>
@@ -35237,7 +35243,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35649,7 +35655,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -36267,7 +36273,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36630,6 +36636,212 @@
       </c>
       <c r="BP172">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6441861</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>6</v>
+      </c>
+      <c r="O173" t="s">
+        <v>192</v>
+      </c>
+      <c r="P173" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q173">
+        <v>7.8</v>
+      </c>
+      <c r="R173">
+        <v>2.59</v>
+      </c>
+      <c r="S173">
+        <v>1.79</v>
+      </c>
+      <c r="T173">
+        <v>1.31</v>
+      </c>
+      <c r="U173">
+        <v>3.28</v>
+      </c>
+      <c r="V173">
+        <v>2.56</v>
+      </c>
+      <c r="W173">
+        <v>1.49</v>
+      </c>
+      <c r="X173">
+        <v>5.8</v>
+      </c>
+      <c r="Y173">
+        <v>1.12</v>
+      </c>
+      <c r="Z173">
+        <v>7.5</v>
+      </c>
+      <c r="AA173">
+        <v>4.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.35</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>11</v>
+      </c>
+      <c r="AE173">
+        <v>1.2</v>
+      </c>
+      <c r="AF173">
+        <v>4</v>
+      </c>
+      <c r="AG173">
+        <v>1.65</v>
+      </c>
+      <c r="AH173">
+        <v>2.1</v>
+      </c>
+      <c r="AI173">
+        <v>1.92</v>
+      </c>
+      <c r="AJ173">
+        <v>1.84</v>
+      </c>
+      <c r="AK173">
+        <v>2.96</v>
+      </c>
+      <c r="AL173">
+        <v>1.16</v>
+      </c>
+      <c r="AM173">
+        <v>1.07</v>
+      </c>
+      <c r="AN173">
+        <v>0.35</v>
+      </c>
+      <c r="AO173">
+        <v>1.47</v>
+      </c>
+      <c r="AP173">
+        <v>0.39</v>
+      </c>
+      <c r="AQ173">
+        <v>1.44</v>
+      </c>
+      <c r="AR173">
+        <v>1.33</v>
+      </c>
+      <c r="AS173">
+        <v>1.45</v>
+      </c>
+      <c r="AT173">
+        <v>2.78</v>
+      </c>
+      <c r="AU173">
+        <v>3</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>3</v>
+      </c>
+      <c r="AX173">
+        <v>10</v>
+      </c>
+      <c r="AY173">
+        <v>6</v>
+      </c>
+      <c r="AZ173">
+        <v>17</v>
+      </c>
+      <c r="BA173">
+        <v>1</v>
+      </c>
+      <c r="BB173">
+        <v>9</v>
+      </c>
+      <c r="BC173">
+        <v>10</v>
+      </c>
+      <c r="BD173">
+        <v>5.23</v>
+      </c>
+      <c r="BE173">
+        <v>10</v>
+      </c>
+      <c r="BF173">
+        <v>1.21</v>
+      </c>
+      <c r="BG173">
+        <v>1.21</v>
+      </c>
+      <c r="BH173">
+        <v>3.74</v>
+      </c>
+      <c r="BI173">
+        <v>1.4</v>
+      </c>
+      <c r="BJ173">
+        <v>2.64</v>
+      </c>
+      <c r="BK173">
+        <v>1.88</v>
+      </c>
+      <c r="BL173">
+        <v>1.92</v>
+      </c>
+      <c r="BM173">
+        <v>2.14</v>
+      </c>
+      <c r="BN173">
+        <v>1.68</v>
+      </c>
+      <c r="BO173">
+        <v>2.49</v>
+      </c>
+      <c r="BP173">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['50', '87', '90+3']</t>
   </si>
   <si>
+    <t>['4', '62']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>['3', '24', '45+2']</t>
+  </si>
+  <si>
+    <t>['48', '52', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1465,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2283,7 +2289,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2489,7 +2495,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2901,7 +2907,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2982,7 +2988,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3107,7 +3113,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3519,7 +3525,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3725,7 +3731,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.06</v>
@@ -4549,7 +4555,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4961,7 +4967,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5039,7 +5045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5167,7 +5173,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5579,7 +5585,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5785,7 +5791,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5991,7 +5997,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6197,7 +6203,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6609,7 +6615,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6815,7 +6821,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6893,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.44</v>
@@ -7021,7 +7027,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7227,7 +7233,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7433,7 +7439,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7639,7 +7645,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7720,7 +7726,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -8257,7 +8263,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8463,7 +8469,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -9571,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.76</v>
@@ -9699,7 +9705,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9780,7 +9786,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ42">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -10189,7 +10195,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10317,7 +10323,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10604,7 +10610,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ46">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -10729,7 +10735,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10935,7 +10941,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11013,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11553,7 +11559,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -12458,7 +12464,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ55">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12583,7 +12589,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12789,7 +12795,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12995,7 +13001,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13073,7 +13079,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.88</v>
@@ -13407,7 +13413,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -14643,7 +14649,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14724,7 +14730,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15055,7 +15061,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15339,7 +15345,7 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0.82</v>
@@ -15467,7 +15473,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15673,7 +15679,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16085,7 +16091,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16166,7 +16172,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ73">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16291,7 +16297,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16497,7 +16503,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16703,7 +16709,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16909,7 +16915,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -18145,7 +18151,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18223,10 +18229,10 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -18351,7 +18357,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18969,7 +18975,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19175,7 +19181,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19381,7 +19387,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19999,7 +20005,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20411,7 +20417,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20617,7 +20623,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20823,7 +20829,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21316,7 +21322,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21441,7 +21447,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21647,7 +21653,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22137,7 +22143,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>0.06</v>
@@ -22265,7 +22271,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23295,7 +23301,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23376,7 +23382,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23707,7 +23713,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23913,7 +23919,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -23991,7 +23997,7 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24325,7 +24331,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24943,7 +24949,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25149,7 +25155,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25355,7 +25361,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25973,7 +25979,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26051,7 +26057,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.44</v>
@@ -26591,7 +26597,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26672,7 +26678,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -27003,7 +27009,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27415,7 +27421,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27827,7 +27833,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28033,7 +28039,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28317,7 +28323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>1.76</v>
@@ -28445,7 +28451,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28857,7 +28863,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28938,7 +28944,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ135">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29269,7 +29275,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29347,7 +29353,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
         <v>1.29</v>
@@ -29475,7 +29481,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29681,7 +29687,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29887,7 +29893,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29968,7 +29974,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ140">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30093,7 +30099,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30299,7 +30305,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30505,7 +30511,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30583,7 +30589,7 @@
         <v>0.92</v>
       </c>
       <c r="AP143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1.17</v>
@@ -30711,7 +30717,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31123,7 +31129,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31329,7 +31335,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31535,7 +31541,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31616,7 +31622,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ148">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR148">
         <v>1.26</v>
@@ -31741,7 +31747,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31947,7 +31953,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32359,7 +32365,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32565,7 +32571,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32643,7 +32649,7 @@
         <v>1.87</v>
       </c>
       <c r="AP153">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>1.88</v>
@@ -32771,7 +32777,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32852,7 +32858,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ154">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33183,7 +33189,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33595,7 +33601,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33676,7 +33682,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ158">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34007,7 +34013,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34419,7 +34425,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34625,7 +34631,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -34703,7 +34709,7 @@
         <v>0.88</v>
       </c>
       <c r="AP163">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
         <v>0.82</v>
@@ -35243,7 +35249,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35324,7 +35330,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ166">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR166">
         <v>2.11</v>
@@ -35655,7 +35661,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -36273,7 +36279,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36685,7 +36691,7 @@
         <v>192</v>
       </c>
       <c r="P173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q173">
         <v>7.8</v>
@@ -36778,22 +36784,22 @@
         <v>2.78</v>
       </c>
       <c r="AU173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV173">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX173">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY173">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ173">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA173">
         <v>1</v>
@@ -36842,6 +36848,212 @@
       </c>
       <c r="BP173">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6441862</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45430.59027777778</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>79</v>
+      </c>
+      <c r="H174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>193</v>
+      </c>
+      <c r="P174" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q174">
+        <v>7.13</v>
+      </c>
+      <c r="R174">
+        <v>2.59</v>
+      </c>
+      <c r="S174">
+        <v>1.83</v>
+      </c>
+      <c r="T174">
+        <v>1.3</v>
+      </c>
+      <c r="U174">
+        <v>3.34</v>
+      </c>
+      <c r="V174">
+        <v>2.49</v>
+      </c>
+      <c r="W174">
+        <v>1.52</v>
+      </c>
+      <c r="X174">
+        <v>5.65</v>
+      </c>
+      <c r="Y174">
+        <v>1.12</v>
+      </c>
+      <c r="Z174">
+        <v>6.5</v>
+      </c>
+      <c r="AA174">
+        <v>4.5</v>
+      </c>
+      <c r="AB174">
+        <v>1.38</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>11</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>4</v>
+      </c>
+      <c r="AG174">
+        <v>1.65</v>
+      </c>
+      <c r="AH174">
+        <v>2.1</v>
+      </c>
+      <c r="AI174">
+        <v>1.89</v>
+      </c>
+      <c r="AJ174">
+        <v>1.87</v>
+      </c>
+      <c r="AK174">
+        <v>3</v>
+      </c>
+      <c r="AL174">
+        <v>1.16</v>
+      </c>
+      <c r="AM174">
+        <v>1.06</v>
+      </c>
+      <c r="AN174">
+        <v>1.06</v>
+      </c>
+      <c r="AO174">
+        <v>2.18</v>
+      </c>
+      <c r="AP174">
+        <v>1</v>
+      </c>
+      <c r="AQ174">
+        <v>2.22</v>
+      </c>
+      <c r="AR174">
+        <v>1.45</v>
+      </c>
+      <c r="AS174">
+        <v>1.88</v>
+      </c>
+      <c r="AT174">
+        <v>3.33</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>6</v>
+      </c>
+      <c r="AX174">
+        <v>11</v>
+      </c>
+      <c r="AY174">
+        <v>10</v>
+      </c>
+      <c r="AZ174">
+        <v>18</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>4.09</v>
+      </c>
+      <c r="BE174">
+        <v>9</v>
+      </c>
+      <c r="BF174">
+        <v>1.34</v>
+      </c>
+      <c r="BG174">
+        <v>1.31</v>
+      </c>
+      <c r="BH174">
+        <v>3.04</v>
+      </c>
+      <c r="BI174">
+        <v>1.62</v>
+      </c>
+      <c r="BJ174">
+        <v>2.23</v>
+      </c>
+      <c r="BK174">
+        <v>2</v>
+      </c>
+      <c r="BL174">
+        <v>1.79</v>
+      </c>
+      <c r="BM174">
+        <v>2.51</v>
+      </c>
+      <c r="BN174">
+        <v>1.49</v>
+      </c>
+      <c r="BO174">
+        <v>3.56</v>
+      </c>
+      <c r="BP174">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,12 @@
     <t>['4', '62']</t>
   </si>
   <si>
+    <t>['30', '64']</t>
+  </si>
+  <si>
+    <t>['5', '72']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -845,6 +851,9 @@
   </si>
   <si>
     <t>['48', '52', '90+3']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1474,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1955,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ4">
         <v>0.88</v>
@@ -2289,7 +2298,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2495,7 +2504,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2907,7 +2916,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3113,7 +3122,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3397,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3525,7 +3534,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3731,7 +3740,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4018,7 +4027,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4555,7 +4564,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4839,7 +4848,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>0.88</v>
@@ -4967,7 +4976,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5173,7 +5182,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5457,10 +5466,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ21">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>2.38</v>
@@ -5585,7 +5594,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5791,7 +5800,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5997,7 +6006,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6203,7 +6212,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6615,7 +6624,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6696,7 +6705,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ27">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6821,7 +6830,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7027,7 +7036,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7108,7 +7117,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ29">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7233,7 +7242,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7311,7 +7320,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7439,7 +7448,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7645,7 +7654,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7723,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>2.22</v>
@@ -8263,7 +8272,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8469,7 +8478,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8959,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9168,7 +9177,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9371,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>1.44</v>
@@ -9580,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9705,7 +9714,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9992,7 +10001,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ43">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10323,7 +10332,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10404,7 +10413,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ45">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10607,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>2.22</v>
@@ -10735,7 +10744,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10941,7 +10950,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11225,7 +11234,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>0.06</v>
@@ -11559,7 +11568,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11640,7 +11649,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12589,7 +12598,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12670,7 +12679,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12795,7 +12804,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12873,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.29</v>
@@ -13001,7 +13010,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13413,7 +13422,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13491,7 +13500,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13700,7 +13709,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>2.24</v>
@@ -14112,7 +14121,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ63">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14521,7 +14530,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
         <v>0.06</v>
@@ -14649,7 +14658,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15061,7 +15070,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15139,7 +15148,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ68">
         <v>1.88</v>
@@ -15348,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15473,7 +15482,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15679,7 +15688,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15757,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
         <v>1.44</v>
@@ -15963,7 +15972,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16091,7 +16100,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16297,7 +16306,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16503,7 +16512,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16584,7 +16593,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ75">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16709,7 +16718,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16915,7 +16924,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17611,10 +17620,10 @@
         <v>1.57</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17817,10 +17826,10 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR81">
         <v>1.74</v>
@@ -18151,7 +18160,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18357,7 +18366,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18975,7 +18984,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19181,7 +19190,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19387,7 +19396,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -20005,7 +20014,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20083,7 +20092,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92">
         <v>0.88</v>
@@ -20417,7 +20426,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20623,7 +20632,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20704,7 +20713,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ95">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -20829,7 +20838,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21113,7 +21122,7 @@
         <v>0.1</v>
       </c>
       <c r="AP97">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ97">
         <v>0.06</v>
@@ -21447,7 +21456,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21653,7 +21662,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21731,10 +21740,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22271,7 +22280,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22349,7 +22358,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ103">
         <v>1.88</v>
@@ -22764,7 +22773,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ105">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.92</v>
@@ -23301,7 +23310,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23585,7 +23594,7 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23713,7 +23722,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23794,7 +23803,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ110">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -23919,7 +23928,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24331,7 +24340,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24615,10 +24624,10 @@
         <v>0.9</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ114">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24949,7 +24958,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25155,7 +25164,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25361,7 +25370,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25648,7 +25657,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ119">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -25979,7 +25988,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26263,7 +26272,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26597,7 +26606,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26675,7 +26684,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124">
         <v>2.22</v>
@@ -26884,7 +26893,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ125">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -27009,7 +27018,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27421,7 +27430,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27833,7 +27842,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28039,7 +28048,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28117,7 +28126,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ131">
         <v>1.17</v>
@@ -28326,7 +28335,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.46</v>
@@ -28451,7 +28460,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28529,7 +28538,7 @@
         <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ133">
         <v>1.44</v>
@@ -28738,7 +28747,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28863,7 +28872,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29275,7 +29284,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29481,7 +29490,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29562,7 +29571,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ138">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29687,7 +29696,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29768,7 +29777,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ139">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -29893,7 +29902,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29971,7 +29980,7 @@
         <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ140">
         <v>2.22</v>
@@ -30099,7 +30108,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30305,7 +30314,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30386,7 +30395,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR142">
         <v>1.57</v>
@@ -30511,7 +30520,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30717,7 +30726,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31129,7 +31138,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31335,7 +31344,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31541,7 +31550,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31747,7 +31756,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31825,7 +31834,7 @@
         <v>1.14</v>
       </c>
       <c r="AP149">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ149">
         <v>1.29</v>
@@ -31953,7 +31962,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32034,7 +32043,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ150">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR150">
         <v>1.17</v>
@@ -32365,7 +32374,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32443,7 +32452,7 @@
         <v>0.73</v>
       </c>
       <c r="AP152">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32571,7 +32580,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32777,7 +32786,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33064,7 +33073,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ155">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR155">
         <v>2.1</v>
@@ -33189,7 +33198,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33601,7 +33610,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33885,7 +33894,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ159">
         <v>0.06</v>
@@ -34013,7 +34022,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34300,7 +34309,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ161">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR161">
         <v>1.56</v>
@@ -34425,7 +34434,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34631,7 +34640,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -34712,7 +34721,7 @@
         <v>1</v>
       </c>
       <c r="AQ163">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -34915,7 +34924,7 @@
         <v>1.56</v>
       </c>
       <c r="AP164">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35121,7 +35130,7 @@
         <v>1.13</v>
       </c>
       <c r="AP165">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ165">
         <v>1.17</v>
@@ -35249,7 +35258,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35661,7 +35670,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -35742,7 +35751,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.34</v>
@@ -36279,7 +36288,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36691,7 +36700,7 @@
         <v>192</v>
       </c>
       <c r="P173" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q173">
         <v>7.8</v>
@@ -36897,7 +36906,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>7.13</v>
@@ -37054,6 +37063,418 @@
       </c>
       <c r="BP174">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6441860</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45431.5</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>73</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>194</v>
+      </c>
+      <c r="P175" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q175">
+        <v>1.72</v>
+      </c>
+      <c r="R175">
+        <v>2.55</v>
+      </c>
+      <c r="S175">
+        <v>7.75</v>
+      </c>
+      <c r="T175">
+        <v>1.28</v>
+      </c>
+      <c r="U175">
+        <v>3.4</v>
+      </c>
+      <c r="V175">
+        <v>2.3</v>
+      </c>
+      <c r="W175">
+        <v>1.55</v>
+      </c>
+      <c r="X175">
+        <v>5.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.14</v>
+      </c>
+      <c r="Z175">
+        <v>1.27</v>
+      </c>
+      <c r="AA175">
+        <v>5.2</v>
+      </c>
+      <c r="AB175">
+        <v>8.85</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>19</v>
+      </c>
+      <c r="AE175">
+        <v>1.18</v>
+      </c>
+      <c r="AF175">
+        <v>4.4</v>
+      </c>
+      <c r="AG175">
+        <v>1.58</v>
+      </c>
+      <c r="AH175">
+        <v>2.25</v>
+      </c>
+      <c r="AI175">
+        <v>2</v>
+      </c>
+      <c r="AJ175">
+        <v>1.72</v>
+      </c>
+      <c r="AK175">
+        <v>1.06</v>
+      </c>
+      <c r="AL175">
+        <v>1.12</v>
+      </c>
+      <c r="AM175">
+        <v>3.5</v>
+      </c>
+      <c r="AN175">
+        <v>1.76</v>
+      </c>
+      <c r="AO175">
+        <v>0.82</v>
+      </c>
+      <c r="AP175">
+        <v>1.83</v>
+      </c>
+      <c r="AQ175">
+        <v>0.78</v>
+      </c>
+      <c r="AR175">
+        <v>1.63</v>
+      </c>
+      <c r="AS175">
+        <v>1.26</v>
+      </c>
+      <c r="AT175">
+        <v>2.89</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>13</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>18</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>5</v>
+      </c>
+      <c r="BD175">
+        <v>1.14</v>
+      </c>
+      <c r="BE175">
+        <v>11</v>
+      </c>
+      <c r="BF175">
+        <v>7.08</v>
+      </c>
+      <c r="BG175">
+        <v>1.31</v>
+      </c>
+      <c r="BH175">
+        <v>3.04</v>
+      </c>
+      <c r="BI175">
+        <v>1.57</v>
+      </c>
+      <c r="BJ175">
+        <v>2.31</v>
+      </c>
+      <c r="BK175">
+        <v>1.98</v>
+      </c>
+      <c r="BL175">
+        <v>1.81</v>
+      </c>
+      <c r="BM175">
+        <v>2.5</v>
+      </c>
+      <c r="BN175">
+        <v>1.49</v>
+      </c>
+      <c r="BO175">
+        <v>3.56</v>
+      </c>
+      <c r="BP175">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6441863</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45431.60416666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>71</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>195</v>
+      </c>
+      <c r="P176" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q176">
+        <v>2.3</v>
+      </c>
+      <c r="R176">
+        <v>2.25</v>
+      </c>
+      <c r="S176">
+        <v>4.4</v>
+      </c>
+      <c r="T176">
+        <v>1.35</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.45</v>
+      </c>
+      <c r="X176">
+        <v>6.25</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>1.74</v>
+      </c>
+      <c r="AA176">
+        <v>3.68</v>
+      </c>
+      <c r="AB176">
+        <v>4.08</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>14</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>3.8</v>
+      </c>
+      <c r="AG176">
+        <v>1.7</v>
+      </c>
+      <c r="AH176">
+        <v>2</v>
+      </c>
+      <c r="AI176">
+        <v>1.68</v>
+      </c>
+      <c r="AJ176">
+        <v>2.05</v>
+      </c>
+      <c r="AK176">
+        <v>1.2</v>
+      </c>
+      <c r="AL176">
+        <v>1.23</v>
+      </c>
+      <c r="AM176">
+        <v>2</v>
+      </c>
+      <c r="AN176">
+        <v>1.71</v>
+      </c>
+      <c r="AO176">
+        <v>1.76</v>
+      </c>
+      <c r="AP176">
+        <v>1.78</v>
+      </c>
+      <c r="AQ176">
+        <v>1.67</v>
+      </c>
+      <c r="AR176">
+        <v>1.88</v>
+      </c>
+      <c r="AS176">
+        <v>1.51</v>
+      </c>
+      <c r="AT176">
+        <v>3.39</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>14</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>17</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.64</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.77</v>
+      </c>
+      <c r="BG176">
+        <v>1.32</v>
+      </c>
+      <c r="BH176">
+        <v>2.98</v>
+      </c>
+      <c r="BI176">
+        <v>1.64</v>
+      </c>
+      <c r="BJ176">
+        <v>2.19</v>
+      </c>
+      <c r="BK176">
+        <v>2.04</v>
+      </c>
+      <c r="BL176">
+        <v>1.74</v>
+      </c>
+      <c r="BM176">
+        <v>2.67</v>
+      </c>
+      <c r="BN176">
+        <v>1.39</v>
+      </c>
+      <c r="BO176">
+        <v>3.74</v>
+      </c>
+      <c r="BP176">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -37411,22 +37411,22 @@
         <v>3.39</v>
       </c>
       <c r="AU176">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV176">
         <v>3</v>
       </c>
       <c r="AW176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX176">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AY176">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ176">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA176">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -37411,22 +37411,22 @@
         <v>3.39</v>
       </c>
       <c r="AU176">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV176">
         <v>3</v>
       </c>
       <c r="AW176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX176">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AY176">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ176">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA176">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['5', '72']</t>
+  </si>
+  <si>
+    <t>['75', '90+5']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2170,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.17</v>
@@ -2298,7 +2301,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2379,7 +2382,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2504,7 +2507,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2788,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -2916,7 +2919,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3122,7 +3125,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3534,7 +3537,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3740,7 +3743,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4233,7 +4236,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>2.17</v>
@@ -4564,7 +4567,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4976,7 +4979,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5057,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>1.39</v>
@@ -5182,7 +5185,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5594,7 +5597,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5800,7 +5803,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5878,7 +5881,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6006,7 +6009,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6212,7 +6215,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6624,7 +6627,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6830,7 +6833,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7036,7 +7039,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7242,7 +7245,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7323,7 +7326,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>2.07</v>
@@ -7448,7 +7451,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7654,7 +7657,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8272,7 +8275,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8478,7 +8481,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8556,7 +8559,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.88</v>
@@ -8765,7 +8768,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -9714,7 +9717,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10332,7 +10335,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10744,7 +10747,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10950,7 +10953,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11568,7 +11571,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11855,7 +11858,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR52">
         <v>1.85</v>
@@ -12470,7 +12473,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>2.22</v>
@@ -12598,7 +12601,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12804,7 +12807,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -13010,7 +13013,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13422,7 +13425,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13503,7 +13506,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.99</v>
@@ -14324,7 +14327,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14658,7 +14661,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15070,7 +15073,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15482,7 +15485,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15563,7 +15566,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15688,7 +15691,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16100,7 +16103,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16306,7 +16309,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16512,7 +16515,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16718,7 +16721,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16924,7 +16927,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17208,7 +17211,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.06</v>
@@ -18160,7 +18163,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18366,7 +18369,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18650,10 +18653,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85">
         <v>1.52</v>
@@ -18984,7 +18987,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19190,7 +19193,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19396,7 +19399,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19474,7 +19477,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19683,7 +19686,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -20014,7 +20017,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20426,7 +20429,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20632,7 +20635,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20710,7 +20713,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20838,7 +20841,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21456,7 +21459,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21534,7 +21537,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -21662,7 +21665,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22280,7 +22283,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22567,7 +22570,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>2.25</v>
@@ -23310,7 +23313,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23722,7 +23725,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23800,7 +23803,7 @@
         <v>1.8</v>
       </c>
       <c r="AP110">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -23928,7 +23931,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24009,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.45</v>
@@ -24340,7 +24343,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24958,7 +24961,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25164,7 +25167,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25370,7 +25373,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25860,7 +25863,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -25988,7 +25991,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26275,7 +26278,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.68</v>
@@ -26606,7 +26609,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -27018,7 +27021,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27099,7 +27102,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27430,7 +27433,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27508,7 +27511,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
         <v>1.88</v>
@@ -27842,7 +27845,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28048,7 +28051,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28460,7 +28463,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28872,7 +28875,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29284,7 +29287,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29490,7 +29493,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29696,7 +29699,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29902,7 +29905,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30108,7 +30111,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30314,7 +30317,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30520,7 +30523,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30726,7 +30729,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30807,7 +30810,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144">
         <v>1.92</v>
@@ -31138,7 +31141,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31344,7 +31347,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31550,7 +31553,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31628,7 +31631,7 @@
         <v>1.92</v>
       </c>
       <c r="AP148">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>2.22</v>
@@ -31756,7 +31759,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31962,7 +31965,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32374,7 +32377,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32455,7 +32458,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.84</v>
@@ -32580,7 +32583,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32786,7 +32789,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33198,7 +33201,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33610,7 +33613,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -34022,7 +34025,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34100,7 +34103,7 @@
         <v>1.27</v>
       </c>
       <c r="AP160">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -34434,7 +34437,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34515,7 +34518,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR162">
         <v>1.33</v>
@@ -34640,7 +34643,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35258,7 +35261,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35542,7 +35545,7 @@
         <v>0.06</v>
       </c>
       <c r="AP167">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
         <v>0.06</v>
@@ -35670,7 +35673,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -36288,7 +36291,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36700,7 +36703,7 @@
         <v>192</v>
       </c>
       <c r="P173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q173">
         <v>7.8</v>
@@ -36906,7 +36909,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>7.13</v>
@@ -37112,7 +37115,7 @@
         <v>194</v>
       </c>
       <c r="P175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37474,6 +37477,212 @@
         <v>3.74</v>
       </c>
       <c r="BP176">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6441868</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45436.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>73</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>196</v>
+      </c>
+      <c r="P177" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q177">
+        <v>3.25</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>3.4</v>
+      </c>
+      <c r="T177">
+        <v>1.48</v>
+      </c>
+      <c r="U177">
+        <v>2.5</v>
+      </c>
+      <c r="V177">
+        <v>3</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.65</v>
+      </c>
+      <c r="AA177">
+        <v>2.93</v>
+      </c>
+      <c r="AB177">
+        <v>2.73</v>
+      </c>
+      <c r="AC177">
+        <v>1.07</v>
+      </c>
+      <c r="AD177">
+        <v>7</v>
+      </c>
+      <c r="AE177">
+        <v>1.4</v>
+      </c>
+      <c r="AF177">
+        <v>2.86</v>
+      </c>
+      <c r="AG177">
+        <v>2.29</v>
+      </c>
+      <c r="AH177">
+        <v>1.6</v>
+      </c>
+      <c r="AI177">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.44</v>
+      </c>
+      <c r="AL177">
+        <v>1.38</v>
+      </c>
+      <c r="AM177">
+        <v>1.48</v>
+      </c>
+      <c r="AN177">
+        <v>1.41</v>
+      </c>
+      <c r="AO177">
+        <v>1</v>
+      </c>
+      <c r="AP177">
+        <v>1.5</v>
+      </c>
+      <c r="AQ177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR177">
+        <v>1.26</v>
+      </c>
+      <c r="AS177">
+        <v>1.25</v>
+      </c>
+      <c r="AT177">
+        <v>2.51</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>7</v>
+      </c>
+      <c r="AY177">
+        <v>6</v>
+      </c>
+      <c r="AZ177">
+        <v>12</v>
+      </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>2.53</v>
+      </c>
+      <c r="BE177">
+        <v>7.5</v>
+      </c>
+      <c r="BF177">
+        <v>1.75</v>
+      </c>
+      <c r="BG177">
+        <v>1.39</v>
+      </c>
+      <c r="BH177">
+        <v>2.67</v>
+      </c>
+      <c r="BI177">
+        <v>1.73</v>
+      </c>
+      <c r="BJ177">
+        <v>1.99</v>
+      </c>
+      <c r="BK177">
+        <v>2.21</v>
+      </c>
+      <c r="BL177">
+        <v>1.56</v>
+      </c>
+      <c r="BM177">
+        <v>2.98</v>
+      </c>
+      <c r="BN177">
+        <v>1.32</v>
+      </c>
+      <c r="BO177">
+        <v>3.9</v>
+      </c>
+      <c r="BP177">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['75', '90+5']</t>
   </si>
   <si>
+    <t>['51', '66']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -857,6 +860,12 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['65', '68']</t>
+  </si>
+  <si>
+    <t>['18', '38', '47', '49', '72']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1558,7 +1567,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2301,7 +2310,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2379,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2507,7 +2516,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2585,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>0.88</v>
@@ -2919,7 +2928,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3125,7 +3134,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3206,7 +3215,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3537,7 +3546,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3615,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>1.17</v>
@@ -3743,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4439,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
         <v>0.06</v>
@@ -4567,7 +4576,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4648,7 +4657,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4979,7 +4988,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5185,7 +5194,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5266,7 +5275,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ20">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5597,7 +5606,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5803,7 +5812,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -6009,7 +6018,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6087,10 +6096,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR24">
         <v>1.61</v>
@@ -6215,7 +6224,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6293,10 +6302,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6627,7 +6636,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6833,7 +6842,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7039,7 +7048,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7245,7 +7254,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7451,7 +7460,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7657,7 +7666,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7941,7 +7950,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ33">
         <v>0.06</v>
@@ -8275,7 +8284,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8356,7 +8365,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8481,7 +8490,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8562,7 +8571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8765,7 +8774,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>0.9399999999999999</v>
@@ -9717,7 +9726,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10001,7 +10010,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>0.78</v>
@@ -10210,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10335,7 +10344,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10747,7 +10756,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10953,7 +10962,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11446,7 +11455,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR50">
         <v>2.42</v>
@@ -11571,7 +11580,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11649,7 +11658,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ51">
         <v>0.78</v>
@@ -12267,7 +12276,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>1.44</v>
@@ -12601,7 +12610,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12807,7 +12816,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12888,7 +12897,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -13013,7 +13022,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13094,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR58">
         <v>1.37</v>
@@ -13425,7 +13434,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -14121,7 +14130,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14330,7 +14339,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14661,7 +14670,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14739,7 +14748,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66">
         <v>2.22</v>
@@ -15073,7 +15082,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15154,7 +15163,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ68">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR68">
         <v>2.03</v>
@@ -15485,7 +15494,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15691,7 +15700,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16103,7 +16112,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16309,7 +16318,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16387,7 +16396,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ74">
         <v>0.88</v>
@@ -16515,7 +16524,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16593,7 +16602,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
         <v>1.67</v>
@@ -16721,7 +16730,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16802,7 +16811,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16927,7 +16936,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17008,7 +17017,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -18163,7 +18172,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18369,7 +18378,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18447,10 +18456,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ84">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18987,7 +18996,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19065,10 +19074,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19193,7 +19202,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19399,7 +19408,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19683,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ90">
         <v>0.9399999999999999</v>
@@ -20017,7 +20026,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20304,7 +20313,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ93">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20429,7 +20438,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20635,7 +20644,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20841,7 +20850,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20919,7 +20928,7 @@
         <v>0.9</v>
       </c>
       <c r="AP96">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -21459,7 +21468,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21665,7 +21674,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21949,7 +21958,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -22283,7 +22292,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22364,7 +22373,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ103">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22979,7 +22988,7 @@
         <v>0.08</v>
       </c>
       <c r="AP106">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ106">
         <v>0.06</v>
@@ -23188,7 +23197,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23313,7 +23322,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23391,7 +23400,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ108">
         <v>2.22</v>
@@ -23725,7 +23734,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23931,7 +23940,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24343,7 +24352,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24424,7 +24433,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ113">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24961,7 +24970,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25039,10 +25048,10 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25167,7 +25176,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25245,10 +25254,10 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25373,7 +25382,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25991,7 +26000,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26609,7 +26618,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -27021,7 +27030,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27099,7 +27108,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -27305,7 +27314,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ127">
         <v>0.06</v>
@@ -27433,7 +27442,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27514,7 +27523,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
         <v>1.25</v>
@@ -27720,7 +27729,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -27845,7 +27854,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28051,7 +28060,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28463,7 +28472,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28875,7 +28884,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29287,7 +29296,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29368,7 +29377,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29493,7 +29502,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29571,7 +29580,7 @@
         <v>0.77</v>
       </c>
       <c r="AP138">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ138">
         <v>0.78</v>
@@ -29699,7 +29708,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29905,7 +29914,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30111,7 +30120,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30192,7 +30201,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR141">
         <v>1.29</v>
@@ -30317,7 +30326,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30395,7 +30404,7 @@
         <v>0.93</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ142">
         <v>0.78</v>
@@ -30523,7 +30532,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30729,7 +30738,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31016,7 +31025,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ145">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR145">
         <v>2.14</v>
@@ -31141,7 +31150,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31347,7 +31356,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31425,7 +31434,7 @@
         <v>1.47</v>
       </c>
       <c r="AP147">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ147">
         <v>1.44</v>
@@ -31553,7 +31562,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31759,7 +31768,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31840,7 +31849,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ149">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -31965,7 +31974,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32377,7 +32386,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32583,7 +32592,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32664,7 +32673,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR153">
         <v>1.47</v>
@@ -32789,7 +32798,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32867,7 +32876,7 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ154">
         <v>2.22</v>
@@ -33201,7 +33210,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33613,7 +33622,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33691,7 +33700,7 @@
         <v>2.07</v>
       </c>
       <c r="AP158">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
         <v>2.22</v>
@@ -34025,7 +34034,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34106,7 +34115,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR160">
         <v>1.23</v>
@@ -34309,7 +34318,7 @@
         <v>2</v>
       </c>
       <c r="AP161">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ161">
         <v>1.67</v>
@@ -34437,7 +34446,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34643,7 +34652,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35261,7 +35270,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35673,7 +35682,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -35751,7 +35760,7 @@
         <v>1.88</v>
       </c>
       <c r="AP168">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ168">
         <v>1.67</v>
@@ -35960,7 +35969,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ169">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR169">
         <v>1.96</v>
@@ -36163,7 +36172,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP170">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170">
         <v>0.88</v>
@@ -36291,7 +36300,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36372,7 +36381,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR171">
         <v>1.2</v>
@@ -36703,7 +36712,7 @@
         <v>192</v>
       </c>
       <c r="P173" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q173">
         <v>7.8</v>
@@ -36909,7 +36918,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q174">
         <v>7.13</v>
@@ -37115,7 +37124,7 @@
         <v>194</v>
       </c>
       <c r="P175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37684,6 +37693,418 @@
       </c>
       <c r="BP177">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6441864</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45437.5</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>87</v>
+      </c>
+      <c r="P178" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <v>2.15</v>
+      </c>
+      <c r="S178">
+        <v>2.55</v>
+      </c>
+      <c r="T178">
+        <v>1.37</v>
+      </c>
+      <c r="U178">
+        <v>2.85</v>
+      </c>
+      <c r="V178">
+        <v>2.7</v>
+      </c>
+      <c r="W178">
+        <v>1.41</v>
+      </c>
+      <c r="X178">
+        <v>6.45</v>
+      </c>
+      <c r="Y178">
+        <v>1.09</v>
+      </c>
+      <c r="Z178">
+        <v>3.75</v>
+      </c>
+      <c r="AA178">
+        <v>3.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.95</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.25</v>
+      </c>
+      <c r="AF178">
+        <v>3.6</v>
+      </c>
+      <c r="AG178">
+        <v>1.83</v>
+      </c>
+      <c r="AH178">
+        <v>1.9</v>
+      </c>
+      <c r="AI178">
+        <v>1.7</v>
+      </c>
+      <c r="AJ178">
+        <v>2.1</v>
+      </c>
+      <c r="AK178">
+        <v>1.8</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.25</v>
+      </c>
+      <c r="AN178">
+        <v>1.24</v>
+      </c>
+      <c r="AO178">
+        <v>1.29</v>
+      </c>
+      <c r="AP178">
+        <v>1.17</v>
+      </c>
+      <c r="AQ178">
+        <v>1.39</v>
+      </c>
+      <c r="AR178">
+        <v>1.33</v>
+      </c>
+      <c r="AS178">
+        <v>1.38</v>
+      </c>
+      <c r="AT178">
+        <v>2.71</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>16</v>
+      </c>
+      <c r="AX178">
+        <v>9</v>
+      </c>
+      <c r="AY178">
+        <v>19</v>
+      </c>
+      <c r="AZ178">
+        <v>14</v>
+      </c>
+      <c r="BA178">
+        <v>6</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>10</v>
+      </c>
+      <c r="BD178">
+        <v>2.67</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>1.64</v>
+      </c>
+      <c r="BG178">
+        <v>1.3</v>
+      </c>
+      <c r="BH178">
+        <v>3.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.53</v>
+      </c>
+      <c r="BJ178">
+        <v>2.43</v>
+      </c>
+      <c r="BK178">
+        <v>1.88</v>
+      </c>
+      <c r="BL178">
+        <v>1.92</v>
+      </c>
+      <c r="BM178">
+        <v>2.36</v>
+      </c>
+      <c r="BN178">
+        <v>1.56</v>
+      </c>
+      <c r="BO178">
+        <v>3.3</v>
+      </c>
+      <c r="BP178">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6441867</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45437.59027777778</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>5</v>
+      </c>
+      <c r="N179">
+        <v>7</v>
+      </c>
+      <c r="O179" t="s">
+        <v>197</v>
+      </c>
+      <c r="P179" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>2.5</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.5</v>
+      </c>
+      <c r="W179">
+        <v>1.48</v>
+      </c>
+      <c r="X179">
+        <v>5.75</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>3.4</v>
+      </c>
+      <c r="AA179">
+        <v>3.4</v>
+      </c>
+      <c r="AB179">
+        <v>1.95</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.25</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.75</v>
+      </c>
+      <c r="AH179">
+        <v>1.95</v>
+      </c>
+      <c r="AI179">
+        <v>1.67</v>
+      </c>
+      <c r="AJ179">
+        <v>2.1</v>
+      </c>
+      <c r="AK179">
+        <v>1.83</v>
+      </c>
+      <c r="AL179">
+        <v>1.3</v>
+      </c>
+      <c r="AM179">
+        <v>1.29</v>
+      </c>
+      <c r="AN179">
+        <v>1.47</v>
+      </c>
+      <c r="AO179">
+        <v>1.88</v>
+      </c>
+      <c r="AP179">
+        <v>1.39</v>
+      </c>
+      <c r="AQ179">
+        <v>1.94</v>
+      </c>
+      <c r="AR179">
+        <v>1.56</v>
+      </c>
+      <c r="AS179">
+        <v>1.47</v>
+      </c>
+      <c r="AT179">
+        <v>3.03</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>8</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>9</v>
+      </c>
+      <c r="AY179">
+        <v>10</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>7</v>
+      </c>
+      <c r="BD179">
+        <v>2.44</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>1.75</v>
+      </c>
+      <c r="BG179">
+        <v>1.2</v>
+      </c>
+      <c r="BH179">
+        <v>3.84</v>
+      </c>
+      <c r="BI179">
+        <v>1.39</v>
+      </c>
+      <c r="BJ179">
+        <v>2.67</v>
+      </c>
+      <c r="BK179">
+        <v>1.95</v>
+      </c>
+      <c r="BL179">
+        <v>1.85</v>
+      </c>
+      <c r="BM179">
+        <v>2.14</v>
+      </c>
+      <c r="BN179">
+        <v>1.6</v>
+      </c>
+      <c r="BO179">
+        <v>2.84</v>
+      </c>
+      <c r="BP179">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['51', '66']</t>
   </si>
   <si>
+    <t>['18', '45+1', '62', '90+2']</t>
+  </si>
+  <si>
+    <t>['24', '36', '52']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -866,6 +872,9 @@
   </si>
   <si>
     <t>['18', '38', '47', '49', '72']</t>
+  </si>
+  <si>
+    <t>['28', '77', '86']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1495,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1564,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.94</v>
@@ -1770,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ3">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1979,7 +1988,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2310,7 +2319,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2516,7 +2525,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2597,7 +2606,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2928,7 +2937,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3134,7 +3143,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3546,7 +3555,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3752,7 +3761,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3833,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4036,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4242,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4451,7 +4460,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR16">
         <v>1.69</v>
@@ -4576,7 +4585,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4863,7 +4872,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1.98</v>
@@ -4988,7 +4997,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5194,7 +5203,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5606,7 +5615,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5684,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -5812,7 +5821,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5893,7 +5902,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6018,7 +6027,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6224,7 +6233,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6511,7 +6520,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR26">
         <v>1.3</v>
@@ -6636,7 +6645,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6714,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -6842,7 +6851,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7048,7 +7057,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7254,7 +7263,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7460,7 +7469,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7538,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7666,7 +7675,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7953,7 +7962,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ33">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -8156,10 +8165,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.83</v>
@@ -8284,7 +8293,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8362,7 +8371,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ35">
         <v>1.39</v>
@@ -8490,7 +8499,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -9726,7 +9735,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10344,7 +10353,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10756,7 +10765,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10962,7 +10971,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11249,7 +11258,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR49">
         <v>1.93</v>
@@ -11452,7 +11461,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ50">
         <v>1.94</v>
@@ -11580,7 +11589,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11864,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
         <v>0.9399999999999999</v>
@@ -12073,7 +12082,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12610,7 +12619,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12816,7 +12825,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -13022,7 +13031,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13434,7 +13443,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13718,7 +13727,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ61">
         <v>0.78</v>
@@ -13924,7 +13933,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.44</v>
@@ -14545,7 +14554,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14670,7 +14679,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14957,7 +14966,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15082,7 +15091,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15494,7 +15503,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15700,7 +15709,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16112,7 +16121,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16190,7 +16199,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ73">
         <v>2.22</v>
@@ -16318,7 +16327,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16399,7 +16408,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -16524,7 +16533,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16730,7 +16739,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16808,7 +16817,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>1.39</v>
@@ -16936,7 +16945,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17223,7 +17232,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -18172,7 +18181,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18378,7 +18387,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18868,10 +18877,10 @@
         <v>0.13</v>
       </c>
       <c r="AP86">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR86">
         <v>2</v>
@@ -18996,7 +19005,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19202,7 +19211,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19280,10 +19289,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>2.24</v>
@@ -19408,7 +19417,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19898,10 +19907,10 @@
         <v>0.11</v>
       </c>
       <c r="AP91">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ91">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR91">
         <v>2.23</v>
@@ -20026,7 +20035,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20107,7 +20116,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -20310,7 +20319,7 @@
         <v>2.11</v>
       </c>
       <c r="AP93">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
         <v>1.94</v>
@@ -20438,7 +20447,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20516,7 +20525,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -20644,7 +20653,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20850,7 +20859,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20931,7 +20940,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21137,7 +21146,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ97">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21468,7 +21477,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21674,7 +21683,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22167,7 +22176,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22292,7 +22301,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22576,7 +22585,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ104">
         <v>0.9399999999999999</v>
@@ -22782,7 +22791,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ105">
         <v>0.78</v>
@@ -22991,7 +23000,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ106">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR106">
         <v>1.39</v>
@@ -23322,7 +23331,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23609,7 +23618,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23734,7 +23743,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23940,7 +23949,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24224,7 +24233,7 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ112">
         <v>1.44</v>
@@ -24352,7 +24361,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24842,7 +24851,7 @@
         <v>0.9</v>
       </c>
       <c r="AP115">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
         <v>1.17</v>
@@ -24970,7 +24979,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25176,7 +25185,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25382,7 +25391,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25463,7 +25472,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ118">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR118">
         <v>1.12</v>
@@ -25666,7 +25675,7 @@
         <v>1.91</v>
       </c>
       <c r="AP119">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -25875,7 +25884,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26000,7 +26009,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26490,7 +26499,7 @@
         <v>0.82</v>
       </c>
       <c r="AP123">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ123">
         <v>1.17</v>
@@ -26618,7 +26627,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -27030,7 +27039,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27317,7 +27326,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ127">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR127">
         <v>1.53</v>
@@ -27442,7 +27451,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27726,7 +27735,7 @@
         <v>0.91</v>
       </c>
       <c r="AP129">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ129">
         <v>1.39</v>
@@ -27854,7 +27863,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27932,10 +27941,10 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR130">
         <v>1.9</v>
@@ -28060,7 +28069,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28472,7 +28481,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28884,7 +28893,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29296,7 +29305,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29502,7 +29511,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29708,7 +29717,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29914,7 +29923,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30120,7 +30129,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30326,7 +30335,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30532,7 +30541,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30738,7 +30747,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30816,7 +30825,7 @@
         <v>0.79</v>
       </c>
       <c r="AP144">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31022,7 +31031,7 @@
         <v>2</v>
       </c>
       <c r="AP145">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ145">
         <v>1.94</v>
@@ -31150,7 +31159,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31231,7 +31240,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ146">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31356,7 +31365,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31562,7 +31571,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31768,7 +31777,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31974,7 +31983,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32258,7 +32267,7 @@
         <v>1.07</v>
       </c>
       <c r="AP151">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ151">
         <v>1.17</v>
@@ -32386,7 +32395,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32592,7 +32601,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32798,7 +32807,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -33082,7 +33091,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ155">
         <v>0.78</v>
@@ -33210,7 +33219,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33497,7 +33506,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR157">
         <v>1.17</v>
@@ -33622,7 +33631,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33909,7 +33918,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ159">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR159">
         <v>1.6</v>
@@ -34034,7 +34043,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q160">
         <v>4.4</v>
@@ -34446,7 +34455,7 @@
         <v>149</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>6.17</v>
@@ -34652,7 +34661,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>2.68</v>
@@ -35270,7 +35279,7 @@
         <v>186</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q166">
         <v>3.48</v>
@@ -35348,7 +35357,7 @@
         <v>2.13</v>
       </c>
       <c r="AP166">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ166">
         <v>2.22</v>
@@ -35557,7 +35566,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AR167">
         <v>1.21</v>
@@ -35682,7 +35691,7 @@
         <v>188</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>6.27</v>
@@ -35966,7 +35975,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169">
         <v>1.39</v>
@@ -36175,7 +36184,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ170">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR170">
         <v>1.56</v>
@@ -36300,7 +36309,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q171">
         <v>4.75</v>
@@ -36712,7 +36721,7 @@
         <v>192</v>
       </c>
       <c r="P173" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q173">
         <v>7.8</v>
@@ -36918,7 +36927,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>7.13</v>
@@ -37124,7 +37133,7 @@
         <v>194</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37742,7 +37751,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -37948,7 +37957,7 @@
         <v>197</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38105,6 +38114,418 @@
       </c>
       <c r="BP179">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6441865</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>198</v>
+      </c>
+      <c r="P180" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q180">
+        <v>1.91</v>
+      </c>
+      <c r="R180">
+        <v>2.6</v>
+      </c>
+      <c r="S180">
+        <v>6</v>
+      </c>
+      <c r="T180">
+        <v>1.29</v>
+      </c>
+      <c r="U180">
+        <v>3.5</v>
+      </c>
+      <c r="V180">
+        <v>2.25</v>
+      </c>
+      <c r="W180">
+        <v>1.57</v>
+      </c>
+      <c r="X180">
+        <v>5.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.14</v>
+      </c>
+      <c r="Z180">
+        <v>1.42</v>
+      </c>
+      <c r="AA180">
+        <v>5</v>
+      </c>
+      <c r="AB180">
+        <v>6</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>12</v>
+      </c>
+      <c r="AE180">
+        <v>1.16</v>
+      </c>
+      <c r="AF180">
+        <v>4.75</v>
+      </c>
+      <c r="AG180">
+        <v>1.57</v>
+      </c>
+      <c r="AH180">
+        <v>2.35</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.91</v>
+      </c>
+      <c r="AK180">
+        <v>1.06</v>
+      </c>
+      <c r="AL180">
+        <v>1.12</v>
+      </c>
+      <c r="AM180">
+        <v>2.9</v>
+      </c>
+      <c r="AN180">
+        <v>2.41</v>
+      </c>
+      <c r="AO180">
+        <v>0.88</v>
+      </c>
+      <c r="AP180">
+        <v>2.44</v>
+      </c>
+      <c r="AQ180">
+        <v>0.83</v>
+      </c>
+      <c r="AR180">
+        <v>2.13</v>
+      </c>
+      <c r="AS180">
+        <v>1.27</v>
+      </c>
+      <c r="AT180">
+        <v>3.4</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>13</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>20</v>
+      </c>
+      <c r="AZ180">
+        <v>10</v>
+      </c>
+      <c r="BA180">
+        <v>6</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.34</v>
+      </c>
+      <c r="BE180">
+        <v>9</v>
+      </c>
+      <c r="BF180">
+        <v>3.88</v>
+      </c>
+      <c r="BG180">
+        <v>1.28</v>
+      </c>
+      <c r="BH180">
+        <v>3.2</v>
+      </c>
+      <c r="BI180">
+        <v>1.53</v>
+      </c>
+      <c r="BJ180">
+        <v>2.43</v>
+      </c>
+      <c r="BK180">
+        <v>1.92</v>
+      </c>
+      <c r="BL180">
+        <v>1.88</v>
+      </c>
+      <c r="BM180">
+        <v>2.44</v>
+      </c>
+      <c r="BN180">
+        <v>1.53</v>
+      </c>
+      <c r="BO180">
+        <v>3.28</v>
+      </c>
+      <c r="BP180">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6441866</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>70</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>6</v>
+      </c>
+      <c r="O181" t="s">
+        <v>199</v>
+      </c>
+      <c r="P181" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q181">
+        <v>1.28</v>
+      </c>
+      <c r="R181">
+        <v>4.29</v>
+      </c>
+      <c r="S181">
+        <v>12.86</v>
+      </c>
+      <c r="T181">
+        <v>1.14</v>
+      </c>
+      <c r="U181">
+        <v>5.25</v>
+      </c>
+      <c r="V181">
+        <v>1.56</v>
+      </c>
+      <c r="W181">
+        <v>2.3</v>
+      </c>
+      <c r="X181">
+        <v>3.14</v>
+      </c>
+      <c r="Y181">
+        <v>1.33</v>
+      </c>
+      <c r="Z181">
+        <v>1.06</v>
+      </c>
+      <c r="AA181">
+        <v>13.4</v>
+      </c>
+      <c r="AB181">
+        <v>21.34</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>70</v>
+      </c>
+      <c r="AE181">
+        <v>1.02</v>
+      </c>
+      <c r="AF181">
+        <v>10</v>
+      </c>
+      <c r="AG181">
+        <v>1.14</v>
+      </c>
+      <c r="AH181">
+        <v>5.16</v>
+      </c>
+      <c r="AI181">
+        <v>2.03</v>
+      </c>
+      <c r="AJ181">
+        <v>1.75</v>
+      </c>
+      <c r="AK181">
+        <v>1.01</v>
+      </c>
+      <c r="AL181">
+        <v>1.02</v>
+      </c>
+      <c r="AM181">
+        <v>6.85</v>
+      </c>
+      <c r="AN181">
+        <v>2.41</v>
+      </c>
+      <c r="AO181">
+        <v>0.06</v>
+      </c>
+      <c r="AP181">
+        <v>2.33</v>
+      </c>
+      <c r="AQ181">
+        <v>0.11</v>
+      </c>
+      <c r="AR181">
+        <v>1.94</v>
+      </c>
+      <c r="AS181">
+        <v>1.06</v>
+      </c>
+      <c r="AT181">
+        <v>3</v>
+      </c>
+      <c r="AU181">
+        <v>16</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>18</v>
+      </c>
+      <c r="AX181">
+        <v>6</v>
+      </c>
+      <c r="AY181">
+        <v>34</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>10</v>
+      </c>
+      <c r="BD181">
+        <v>1.09</v>
+      </c>
+      <c r="BE181">
+        <v>13</v>
+      </c>
+      <c r="BF181">
+        <v>9.35</v>
+      </c>
+      <c r="BG181">
+        <v>1.25</v>
+      </c>
+      <c r="BH181">
+        <v>3.6</v>
+      </c>
+      <c r="BI181">
+        <v>1.44</v>
+      </c>
+      <c r="BJ181">
+        <v>2.65</v>
+      </c>
+      <c r="BK181">
+        <v>1.85</v>
+      </c>
+      <c r="BL181">
+        <v>1.95</v>
+      </c>
+      <c r="BM181">
+        <v>2.1</v>
+      </c>
+      <c r="BN181">
+        <v>1.7</v>
+      </c>
+      <c r="BO181">
+        <v>2.62</v>
+      </c>
+      <c r="BP181">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -38462,22 +38462,22 @@
         <v>3</v>
       </c>
       <c r="AU181">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW181">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AX181">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY181">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AZ181">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA181">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -38462,22 +38462,22 @@
         <v>3</v>
       </c>
       <c r="AU181">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW181">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AX181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY181">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AZ181">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA181">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -1600,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1806,10 +1806,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA3">
         <v>10</v>
@@ -2012,10 +2012,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2218,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ6">
         <v>8</v>
@@ -2630,10 +2630,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -2836,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>5</v>
@@ -3042,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>2</v>
@@ -3248,10 +3248,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>2</v>
@@ -3454,10 +3454,10 @@
         <v>6</v>
       </c>
       <c r="AY11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>2</v>
@@ -3660,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="AY12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3866,10 +3866,10 @@
         <v>6</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>3</v>
@@ -4072,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA14">
         <v>10</v>
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="AY15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AZ15">
         <v>2</v>
@@ -4484,10 +4484,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4690,10 +4690,10 @@
         <v>2</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4896,7 +4896,7 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ18">
         <v>10</v>
@@ -5102,10 +5102,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -5308,10 +5308,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
         <v>11</v>
-      </c>
-      <c r="AZ20">
-        <v>10</v>
       </c>
       <c r="BA20">
         <v>11</v>
@@ -5514,10 +5514,10 @@
         <v>8</v>
       </c>
       <c r="AY21">
+        <v>18</v>
+      </c>
+      <c r="AZ21">
         <v>14</v>
-      </c>
-      <c r="AZ21">
-        <v>12</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -5720,10 +5720,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA22">
         <v>8</v>
@@ -5926,10 +5926,10 @@
         <v>2</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA23">
         <v>1</v>
@@ -6132,10 +6132,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA24">
         <v>7</v>
@@ -6338,10 +6338,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6544,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ26">
         <v>9</v>
@@ -6750,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -6956,10 +6956,10 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA28">
         <v>7</v>
@@ -7162,10 +7162,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
+        <v>19</v>
+      </c>
+      <c r="AZ29">
         <v>14</v>
-      </c>
-      <c r="AZ29">
-        <v>11</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7368,10 +7368,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
+        <v>12</v>
+      </c>
+      <c r="AZ30">
         <v>9</v>
-      </c>
-      <c r="AZ30">
-        <v>7</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7574,10 +7574,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>12</v>
@@ -7780,10 +7780,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -7986,10 +7986,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA33">
         <v>1</v>
@@ -8192,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="AY34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ34">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -8398,10 +8398,10 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8604,10 +8604,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
         <v>9</v>
-      </c>
-      <c r="AZ36">
-        <v>6</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8810,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ37">
         <v>8</v>
@@ -9016,10 +9016,10 @@
         <v>2</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA38">
         <v>14</v>
@@ -9222,10 +9222,10 @@
         <v>4</v>
       </c>
       <c r="AY39">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA39">
         <v>6</v>
@@ -9428,10 +9428,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA40">
         <v>7</v>
@@ -9634,10 +9634,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA41">
         <v>8</v>
@@ -9840,10 +9840,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA42">
         <v>1</v>
@@ -10046,10 +10046,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ43">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA43">
         <v>1</v>
@@ -10252,10 +10252,10 @@
         <v>4</v>
       </c>
       <c r="AY44">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA44">
         <v>5</v>
@@ -10458,10 +10458,10 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10664,10 +10664,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -10870,10 +10870,10 @@
         <v>7</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA47">
         <v>5</v>
@@ -11079,7 +11079,7 @@
         <v>14</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA48">
         <v>4</v>
@@ -11282,10 +11282,10 @@
         <v>1</v>
       </c>
       <c r="AY49">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11488,7 +11488,7 @@
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
         <v>8</v>
@@ -11694,10 +11694,10 @@
         <v>3</v>
       </c>
       <c r="AY51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="AY52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ52">
         <v>3</v>
@@ -12106,10 +12106,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12312,10 +12312,10 @@
         <v>6</v>
       </c>
       <c r="AY54">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA54">
         <v>7</v>
@@ -12518,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="AY55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12724,10 +12724,10 @@
         <v>4</v>
       </c>
       <c r="AY56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ56">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA56">
         <v>3</v>
@@ -12930,10 +12930,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ57">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13136,10 +13136,10 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13342,10 +13342,10 @@
         <v>11</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA59">
         <v>2</v>
@@ -13548,10 +13548,10 @@
         <v>2</v>
       </c>
       <c r="AY60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -13754,10 +13754,10 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -13960,10 +13960,10 @@
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA62">
         <v>11</v>
@@ -14166,10 +14166,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ63">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA63">
         <v>3</v>
@@ -14372,10 +14372,10 @@
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA64">
         <v>4</v>
@@ -14578,10 +14578,10 @@
         <v>10</v>
       </c>
       <c r="AY65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14784,10 +14784,10 @@
         <v>11</v>
       </c>
       <c r="AY66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ66">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA66">
         <v>2</v>
@@ -14990,10 +14990,10 @@
         <v>9</v>
       </c>
       <c r="AY67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA67">
         <v>1</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
         <v>11</v>
@@ -15402,10 +15402,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15608,10 +15608,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15814,10 +15814,10 @@
         <v>2</v>
       </c>
       <c r="AY71">
+        <v>19</v>
+      </c>
+      <c r="AZ71">
         <v>13</v>
-      </c>
-      <c r="AZ71">
-        <v>7</v>
       </c>
       <c r="BA71">
         <v>6</v>
@@ -16020,10 +16020,10 @@
         <v>6</v>
       </c>
       <c r="AY72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA72">
         <v>6</v>
@@ -16226,10 +16226,10 @@
         <v>2</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16432,10 +16432,10 @@
         <v>5</v>
       </c>
       <c r="AY74">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA74">
         <v>11</v>
@@ -16638,10 +16638,10 @@
         <v>9</v>
       </c>
       <c r="AY75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA75">
         <v>3</v>
@@ -16844,10 +16844,10 @@
         <v>3</v>
       </c>
       <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
         <v>11</v>
-      </c>
-      <c r="AZ76">
-        <v>8</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -17050,10 +17050,10 @@
         <v>4</v>
       </c>
       <c r="AY77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA77">
         <v>5</v>
@@ -17259,7 +17259,7 @@
         <v>13</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -17462,10 +17462,10 @@
         <v>4</v>
       </c>
       <c r="AY79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17671,7 +17671,7 @@
         <v>9</v>
       </c>
       <c r="AZ80">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17874,10 +17874,10 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA81">
         <v>6</v>
@@ -18080,10 +18080,10 @@
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA82">
         <v>7</v>
@@ -18286,10 +18286,10 @@
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ83">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18492,10 +18492,10 @@
         <v>7</v>
       </c>
       <c r="AY84">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ84">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA84">
         <v>4</v>
@@ -18701,7 +18701,7 @@
         <v>5</v>
       </c>
       <c r="AZ85">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BA85">
         <v>1</v>
@@ -18904,10 +18904,10 @@
         <v>1</v>
       </c>
       <c r="AY86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -19110,10 +19110,10 @@
         <v>1</v>
       </c>
       <c r="AY87">
+        <v>16</v>
+      </c>
+      <c r="AZ87">
         <v>8</v>
-      </c>
-      <c r="AZ87">
-        <v>6</v>
       </c>
       <c r="BA87">
         <v>2</v>
@@ -19316,10 +19316,10 @@
         <v>2</v>
       </c>
       <c r="AY88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -19525,7 +19525,7 @@
         <v>9</v>
       </c>
       <c r="AZ89">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA89">
         <v>0</v>
@@ -19731,7 +19731,7 @@
         <v>12</v>
       </c>
       <c r="AZ90">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -19934,10 +19934,10 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA91">
         <v>2</v>
@@ -20140,10 +20140,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA92">
         <v>7</v>
@@ -20346,10 +20346,10 @@
         <v>3</v>
       </c>
       <c r="AY93">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA93">
         <v>3</v>
@@ -20552,10 +20552,10 @@
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA94">
         <v>12</v>
@@ -20758,10 +20758,10 @@
         <v>6</v>
       </c>
       <c r="AY95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ95">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA95">
         <v>3</v>
@@ -20964,10 +20964,10 @@
         <v>4</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ96">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>7</v>
@@ -21170,10 +21170,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA97">
         <v>7</v>
@@ -21376,10 +21376,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ98">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA98">
         <v>2</v>
@@ -21582,10 +21582,10 @@
         <v>8</v>
       </c>
       <c r="AY99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ99">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21788,10 +21788,10 @@
         <v>4</v>
       </c>
       <c r="AY100">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ100">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA100">
         <v>4</v>
@@ -21994,10 +21994,10 @@
         <v>5</v>
       </c>
       <c r="AY101">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ101">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22200,10 +22200,10 @@
         <v>4</v>
       </c>
       <c r="AY102">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA102">
         <v>4</v>
@@ -22406,10 +22406,10 @@
         <v>4</v>
       </c>
       <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
         <v>12</v>
-      </c>
-      <c r="AZ103">
-        <v>9</v>
       </c>
       <c r="BA103">
         <v>3</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -22818,10 +22818,10 @@
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA105">
         <v>16</v>
@@ -23024,10 +23024,10 @@
         <v>1</v>
       </c>
       <c r="AY106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA106">
         <v>6</v>
@@ -23230,10 +23230,10 @@
         <v>5</v>
       </c>
       <c r="AY107">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA107">
         <v>2</v>
@@ -23436,10 +23436,10 @@
         <v>10</v>
       </c>
       <c r="AY108">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ108">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA108">
         <v>4</v>
@@ -23642,10 +23642,10 @@
         <v>6</v>
       </c>
       <c r="AY109">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -23848,10 +23848,10 @@
         <v>6</v>
       </c>
       <c r="AY110">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA110">
         <v>4</v>
@@ -24054,10 +24054,10 @@
         <v>2</v>
       </c>
       <c r="AY111">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA111">
         <v>5</v>
@@ -24260,10 +24260,10 @@
         <v>4</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA112">
         <v>3</v>
@@ -24466,10 +24466,10 @@
         <v>9</v>
       </c>
       <c r="AY113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ113">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA113">
         <v>5</v>
@@ -24672,10 +24672,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA114">
         <v>7</v>
@@ -24878,10 +24878,10 @@
         <v>1</v>
       </c>
       <c r="AY115">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA115">
         <v>5</v>
@@ -25084,10 +25084,10 @@
         <v>9</v>
       </c>
       <c r="AY116">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ116">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA116">
         <v>1</v>
@@ -25290,10 +25290,10 @@
         <v>5</v>
       </c>
       <c r="AY117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA117">
         <v>1</v>
@@ -25496,10 +25496,10 @@
         <v>4</v>
       </c>
       <c r="AY118">
+        <v>15</v>
+      </c>
+      <c r="AZ118">
         <v>10</v>
-      </c>
-      <c r="AZ118">
-        <v>7</v>
       </c>
       <c r="BA118">
         <v>8</v>
@@ -25702,10 +25702,10 @@
         <v>3</v>
       </c>
       <c r="AY119">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -25908,10 +25908,10 @@
         <v>10</v>
       </c>
       <c r="AY120">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ120">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26114,10 +26114,10 @@
         <v>4</v>
       </c>
       <c r="AY121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ121">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA121">
         <v>6</v>
@@ -26320,10 +26320,10 @@
         <v>5</v>
       </c>
       <c r="AY122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ122">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>7</v>
@@ -26526,10 +26526,10 @@
         <v>3</v>
       </c>
       <c r="AY123">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA123">
         <v>2</v>
@@ -26732,10 +26732,10 @@
         <v>10</v>
       </c>
       <c r="AY124">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ124">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA124">
         <v>2</v>
@@ -26938,10 +26938,10 @@
         <v>10</v>
       </c>
       <c r="AY125">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ125">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA125">
         <v>3</v>
@@ -27144,10 +27144,10 @@
         <v>7</v>
       </c>
       <c r="AY126">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ126">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA126">
         <v>4</v>
@@ -27350,10 +27350,10 @@
         <v>7</v>
       </c>
       <c r="AY127">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA127">
         <v>6</v>
@@ -27556,10 +27556,10 @@
         <v>4</v>
       </c>
       <c r="AY128">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ128">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA128">
         <v>5</v>
@@ -27762,7 +27762,7 @@
         <v>3</v>
       </c>
       <c r="AY129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ129">
         <v>5</v>
@@ -27968,10 +27968,10 @@
         <v>5</v>
       </c>
       <c r="AY130">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA130">
         <v>5</v>
@@ -28174,10 +28174,10 @@
         <v>4</v>
       </c>
       <c r="AY131">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ131">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA131">
         <v>6</v>
@@ -28380,10 +28380,10 @@
         <v>4</v>
       </c>
       <c r="AY132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ132">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA132">
         <v>3</v>
@@ -28586,10 +28586,10 @@
         <v>7</v>
       </c>
       <c r="AY133">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA133">
         <v>4</v>
@@ -28792,7 +28792,7 @@
         <v>4</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ134">
         <v>8</v>
@@ -28998,10 +28998,10 @@
         <v>5</v>
       </c>
       <c r="AY135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ135">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA135">
         <v>1</v>
@@ -29204,10 +29204,10 @@
         <v>3</v>
       </c>
       <c r="AY136">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA136">
         <v>2</v>
@@ -29410,10 +29410,10 @@
         <v>6</v>
       </c>
       <c r="AY137">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ137">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29616,10 +29616,10 @@
         <v>1</v>
       </c>
       <c r="AY138">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ138">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA138">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>6</v>
       </c>
       <c r="AZ139">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA139">
         <v>2</v>
@@ -30028,10 +30028,10 @@
         <v>6</v>
       </c>
       <c r="AY140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA140">
         <v>2</v>
@@ -30234,10 +30234,10 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ141">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA141">
         <v>6</v>
@@ -30440,10 +30440,10 @@
         <v>4</v>
       </c>
       <c r="AY142">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA142">
         <v>9</v>
@@ -30646,10 +30646,10 @@
         <v>4</v>
       </c>
       <c r="AY143">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA143">
         <v>6</v>
@@ -30852,10 +30852,10 @@
         <v>3</v>
       </c>
       <c r="AY144">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA144">
         <v>4</v>
@@ -31058,7 +31058,7 @@
         <v>4</v>
       </c>
       <c r="AY145">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ145">
         <v>4</v>
@@ -31264,10 +31264,10 @@
         <v>6</v>
       </c>
       <c r="AY146">
+        <v>17</v>
+      </c>
+      <c r="AZ146">
         <v>12</v>
-      </c>
-      <c r="AZ146">
-        <v>11</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31470,10 +31470,10 @@
         <v>6</v>
       </c>
       <c r="AY147">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ147">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA147">
         <v>4</v>
@@ -31676,10 +31676,10 @@
         <v>5</v>
       </c>
       <c r="AY148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ148">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -31882,10 +31882,10 @@
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ149">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -32088,7 +32088,7 @@
         <v>5</v>
       </c>
       <c r="AY150">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ150">
         <v>9</v>
@@ -32294,7 +32294,7 @@
         <v>0</v>
       </c>
       <c r="AY151">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ151">
         <v>3</v>
@@ -32500,10 +32500,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32706,10 +32706,10 @@
         <v>8</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ153">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA153">
         <v>5</v>
@@ -32912,10 +32912,10 @@
         <v>11</v>
       </c>
       <c r="AY154">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ154">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA154">
         <v>5</v>
@@ -33118,10 +33118,10 @@
         <v>2</v>
       </c>
       <c r="AY155">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AZ155">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA155">
         <v>7</v>
@@ -33324,10 +33324,10 @@
         <v>6</v>
       </c>
       <c r="AY156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ156">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="BA156">
         <v>0</v>
@@ -33530,10 +33530,10 @@
         <v>5</v>
       </c>
       <c r="AY157">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ157">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA157">
         <v>2</v>
@@ -33736,10 +33736,10 @@
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ158">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA158">
         <v>1</v>
@@ -33942,10 +33942,10 @@
         <v>6</v>
       </c>
       <c r="AY159">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ159">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA159">
         <v>11</v>
@@ -34148,10 +34148,10 @@
         <v>7</v>
       </c>
       <c r="AY160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ160">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA160">
         <v>2</v>
@@ -34354,10 +34354,10 @@
         <v>10</v>
       </c>
       <c r="AY161">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ161">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA161">
         <v>5</v>
@@ -34560,10 +34560,10 @@
         <v>6</v>
       </c>
       <c r="AY162">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ162">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA162">
         <v>9</v>
@@ -34766,10 +34766,10 @@
         <v>2</v>
       </c>
       <c r="AY163">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ163">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA163">
         <v>3</v>
@@ -34972,7 +34972,7 @@
         <v>2</v>
       </c>
       <c r="AY164">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ164">
         <v>4</v>
@@ -35178,10 +35178,10 @@
         <v>5</v>
       </c>
       <c r="AY165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ165">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA165">
         <v>3</v>
@@ -35384,7 +35384,7 @@
         <v>1</v>
       </c>
       <c r="AY166">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ166">
         <v>4</v>
@@ -35590,10 +35590,10 @@
         <v>4</v>
       </c>
       <c r="AY167">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ167">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA167">
         <v>7</v>
@@ -35796,10 +35796,10 @@
         <v>6</v>
       </c>
       <c r="AY168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ168">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA168">
         <v>3</v>
@@ -36002,10 +36002,10 @@
         <v>3</v>
       </c>
       <c r="AY169">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ169">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA169">
         <v>3</v>
@@ -36208,10 +36208,10 @@
         <v>4</v>
       </c>
       <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
         <v>9</v>
-      </c>
-      <c r="AZ170">
-        <v>8</v>
       </c>
       <c r="BA170">
         <v>4</v>
@@ -36414,10 +36414,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ171">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA171">
         <v>3</v>
@@ -36623,7 +36623,7 @@
         <v>9</v>
       </c>
       <c r="AZ172">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA172">
         <v>1</v>
@@ -36829,7 +36829,7 @@
         <v>11</v>
       </c>
       <c r="AZ173">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BA173">
         <v>1</v>
@@ -37035,7 +37035,7 @@
         <v>10</v>
       </c>
       <c r="AZ174">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA174">
         <v>3</v>
@@ -37238,7 +37238,7 @@
         <v>5</v>
       </c>
       <c r="AY175">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ175">
         <v>8</v>
@@ -37444,10 +37444,10 @@
         <v>14</v>
       </c>
       <c r="AY176">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ176">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA176">
         <v>2</v>
@@ -37650,10 +37650,10 @@
         <v>7</v>
       </c>
       <c r="AY177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ177">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA177">
         <v>2</v>
@@ -37856,10 +37856,10 @@
         <v>9</v>
       </c>
       <c r="AY178">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AZ178">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA178">
         <v>6</v>
@@ -38062,10 +38062,10 @@
         <v>9</v>
       </c>
       <c r="AY179">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ179">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA179">
         <v>4</v>
@@ -38268,10 +38268,10 @@
         <v>8</v>
       </c>
       <c r="AY180">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ180">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA180">
         <v>6</v>
@@ -38474,10 +38474,10 @@
         <v>6</v>
       </c>
       <c r="AY181">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AZ181">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA181">
         <v>8</v>
